--- a/3 курс/6 семестр/ИАД 2/Данные.xlsx
+++ b/3 курс/6 семестр/ИАД 2/Данные.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Рейтинг стран по уровню жизни" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="3" r:id="rId2"/>
+    <sheet name="Рейтинг стран по уровню жизни" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="107">
   <si>
     <t>Страна</t>
   </si>
@@ -280,18 +282,86 @@
   </si>
   <si>
     <t>Бангладеш</t>
+  </si>
+  <si>
+    <t>Однофакторный дисперсионный анализ</t>
+  </si>
+  <si>
+    <t>ИТОГИ</t>
+  </si>
+  <si>
+    <t>Группы</t>
+  </si>
+  <si>
+    <t>Счет</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Среднее</t>
+  </si>
+  <si>
+    <t>Дисперсия</t>
+  </si>
+  <si>
+    <t>Дисперсионный анализ</t>
+  </si>
+  <si>
+    <t>Источник вариации</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-Значение</t>
+  </si>
+  <si>
+    <t>F критическое</t>
+  </si>
+  <si>
+    <t>Между группами</t>
+  </si>
+  <si>
+    <t>Внутри групп</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Индекс</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,6 +398,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -343,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -366,20 +444,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -660,15 +766,5883 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>77</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10594.939999999999</v>
+      </c>
+      <c r="D5" s="5">
+        <v>137.59662337662337</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1175.4581647641792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>77</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5051.5400000000018</v>
+      </c>
+      <c r="D6" s="5">
+        <v>65.604415584415605</v>
+      </c>
+      <c r="E6" s="5">
+        <v>839.67451182501486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>77</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4702.050000000002</v>
+      </c>
+      <c r="D7" s="5">
+        <v>61.065584415584439</v>
+      </c>
+      <c r="E7" s="5">
+        <v>189.06795129869946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>77</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5015.2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>65.13246753246753</v>
+      </c>
+      <c r="E8" s="5">
+        <v>102.42802409432663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>77</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4095.9099999999994</v>
+      </c>
+      <c r="D9" s="5">
+        <v>53.193636363636358</v>
+      </c>
+      <c r="E9" s="5">
+        <v>403.21402081339829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>77</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1018.0199999999999</v>
+      </c>
+      <c r="D10" s="5">
+        <v>13.221038961038959</v>
+      </c>
+      <c r="E10" s="5">
+        <v>52.237488380041071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5">
+        <v>77</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2746.9999999999995</v>
+      </c>
+      <c r="D11" s="5">
+        <v>35.675324675324667</v>
+      </c>
+      <c r="E11" s="5">
+        <v>57.707462064252084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>77</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4036.18</v>
+      </c>
+      <c r="D12" s="5">
+        <v>52.417922077922078</v>
+      </c>
+      <c r="E12" s="5">
+        <v>428.97777720437404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
+        <v>77</v>
+      </c>
+      <c r="C13" s="6">
+        <v>6027.3699999999981</v>
+      </c>
+      <c r="D13" s="6">
+        <v>78.277532467532438</v>
+      </c>
+      <c r="E13" s="6">
+        <v>228.94722935748914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="5">
+        <v>711732.79505829723</v>
+      </c>
+      <c r="C18" s="5">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5">
+        <v>88966.599382287153</v>
+      </c>
+      <c r="E18" s="5">
+        <v>230.2373656693488</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2.4232985273979853E-188</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1.9519228324761164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="5">
+        <v>264306.15986493503</v>
+      </c>
+      <c r="C19" s="5">
+        <v>684</v>
+      </c>
+      <c r="D19" s="5">
+        <v>386.41251442241963</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="6">
+        <v>976038.95492323232</v>
+      </c>
+      <c r="C21" s="6">
+        <v>692</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B694"/>
+  <sheetViews>
+    <sheetView topLeftCell="A668" workbookViewId="0">
+      <selection activeCell="G678" sqref="G678"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>196.47</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>196.08</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>195.06</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>189.73</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>188.12</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>187.82</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>186.41</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>184.3</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>183.07</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>180.52</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>179.78</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>178.27</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>176.77</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>176.46</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>173.56</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>172.32</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>169.42</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>166.73</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>164.69</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>164.41</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>164.29</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>160.81</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>160.37</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>158.97999999999999</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>158.34</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>158.32</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>156.1</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>154.53</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>153.59</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>152.72</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>152.34</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>151.75</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>151.19</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>146.59</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>146.09</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>145.9</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>143.81</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>137.86000000000001</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>135.75</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>135.71</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>135.61000000000001</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>133.06</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>130.25</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>128.06</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>127.01</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>126.46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>123.8</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>122.56</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>122.44</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>121.02</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>120.39</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>118.42</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>117.7</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>115.41</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>110.71</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>110.42</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>110.07</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>110.04</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>109.94</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>105.83</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>104.54</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>104.05</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>103.87</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>103.67</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>103.32</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>101.9</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>99.87</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>99.58</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>89.48</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>88.23</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>88.14</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>85.88</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>85.42</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>85.1</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>75.22</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>73.14</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>69.3</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>110.69</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>127.76</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>108.78</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>118.09</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>92.03</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>89.88</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>98.04</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>111.99</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>97.59</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>112.75</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>98</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>76.75</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>119.1</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>97.57</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>79.81</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>68.239999999999995</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>105.01</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>100.46</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>57.23</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>53.61</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>119.33</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>93.17</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>71.19</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>60.44</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>90.8</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>100.53</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>87.7</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>61.83</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>56.55</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>67.28</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>85.96</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>110.93</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>99.13</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>74.16</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>88.84</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>66.06</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>73.430000000000007</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>42.92</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>81.3</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>54.2</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>48.46</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>53.78</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>51</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>39.82</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>44.44</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>51.43</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>46.52</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>47.05</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>52.01</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>30.23</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>37.94</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>61.73</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>50.7</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>38.96</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>36.1</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>39.869999999999997</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>43.69</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>36.31</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>39.4</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>33.14</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>31.01</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>63.93</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>66.790000000000006</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>25.59</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>27.21</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>37.42</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>38.65</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>23.27</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>30.22</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>25.95</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>37.21</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>75.28</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>78.819999999999993</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>77.25</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>76.849999999999994</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>76.77</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>71.459999999999994</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>59.11</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>52.79</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>66.489999999999995</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>77.83</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>53.27</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>84.09</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>68.930000000000007</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>77.989999999999995</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>60.52</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>56.36</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>75.77</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>69.89</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>88</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>74.010000000000005</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>65.180000000000007</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>53.82</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>84.48</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>53.55</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>70.819999999999993</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>63.4</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>70.38</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>69.290000000000006</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>71.78</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>70.760000000000005</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>83.78</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>72.3</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>70.33</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>55.65</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>75.2</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>22.98</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>72.16</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>60.71</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>64.59</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>60.69</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>51.09</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>47.67</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>60.14</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>52.88</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>56.43</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>47.49</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>37.04</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>79.819999999999993</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>62.37</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>57.62</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>57.11</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>60.78</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>56.62</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>54.53</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>47.46</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>55.42</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>58.71</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>58.3</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>30.52</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>50.47</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>50.96</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>53.74</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>63.3</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>59.85</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>58.91</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>35.42</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>51.47</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>51.78</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>50.97</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>35.020000000000003</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>79.22</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>73.23</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>75.27</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>76.819999999999993</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>65.66</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>79.459999999999994</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>79.459999999999994</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>73.58</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>73.709999999999994</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>69.41</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>74.36</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>69.23</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>80.48</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>78.42</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>63.75</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>71.27</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>74.88</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>71.64</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>73.17</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>78.3</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>74.47</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>68.790000000000006</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>51.44</v>
+      </c>
+      <c r="B257" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>66.13</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>78.34</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>60.46</v>
+      </c>
+      <c r="B260" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>63.73</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>52.06</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>72.97</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>60.04</v>
+      </c>
+      <c r="B264" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>83.59</v>
+      </c>
+      <c r="B265" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>86.89</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>71.069999999999993</v>
+      </c>
+      <c r="B267" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>62.52</v>
+      </c>
+      <c r="B268" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>66.56</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>58.87</v>
+      </c>
+      <c r="B270" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>63.27</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>54.99</v>
+      </c>
+      <c r="B272" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>55.48</v>
+      </c>
+      <c r="B273" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>47.62</v>
+      </c>
+      <c r="B274" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>55.07</v>
+      </c>
+      <c r="B275" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>70.81</v>
+      </c>
+      <c r="B276" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>66.150000000000006</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>65.22</v>
+      </c>
+      <c r="B279" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>52.35</v>
+      </c>
+      <c r="B280" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="B281" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>69.81</v>
+      </c>
+      <c r="B282" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>67.8</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>51.73</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>52.01</v>
+      </c>
+      <c r="B285" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>68.209999999999994</v>
+      </c>
+      <c r="B286" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>65.44</v>
+      </c>
+      <c r="B287" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>57.33</v>
+      </c>
+      <c r="B288" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>64.66</v>
+      </c>
+      <c r="B289" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>59.86</v>
+      </c>
+      <c r="B290" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>67.63</v>
+      </c>
+      <c r="B291" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>60.51</v>
+      </c>
+      <c r="B292" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>78.44</v>
+      </c>
+      <c r="B293" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>57.64</v>
+      </c>
+      <c r="B294" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>55.59</v>
+      </c>
+      <c r="B295" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>39.35</v>
+      </c>
+      <c r="B296" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>51.13</v>
+      </c>
+      <c r="B297" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>61.9</v>
+      </c>
+      <c r="B298" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>64.180000000000007</v>
+      </c>
+      <c r="B299" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>66.930000000000007</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>72.98</v>
+      </c>
+      <c r="B301" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>66.45</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>56.26</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="B304" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>44.76</v>
+      </c>
+      <c r="B305" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>55.24</v>
+      </c>
+      <c r="B306" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>51.86</v>
+      </c>
+      <c r="B307" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>54.98</v>
+      </c>
+      <c r="B308" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>42.55</v>
+      </c>
+      <c r="B309" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>83.88</v>
+      </c>
+      <c r="B310" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>122.67</v>
+      </c>
+      <c r="B311" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>72.180000000000007</v>
+      </c>
+      <c r="B312" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>73.39</v>
+      </c>
+      <c r="B313" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>97.22</v>
+      </c>
+      <c r="B314" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>72.150000000000006</v>
+      </c>
+      <c r="B315" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>75.22</v>
+      </c>
+      <c r="B316" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>66.569999999999993</v>
+      </c>
+      <c r="B317" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>73.010000000000005</v>
+      </c>
+      <c r="B318" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>70.11</v>
+      </c>
+      <c r="B319" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>104.49</v>
+      </c>
+      <c r="B320" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>50.99</v>
+      </c>
+      <c r="B321" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>70.95</v>
+      </c>
+      <c r="B322" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>85.52</v>
+      </c>
+      <c r="B323" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>54.74</v>
+      </c>
+      <c r="B324" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>54.17</v>
+      </c>
+      <c r="B325" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>68.16</v>
+      </c>
+      <c r="B326" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>65.33</v>
+      </c>
+      <c r="B327" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>50.05</v>
+      </c>
+      <c r="B328" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>50.77</v>
+      </c>
+      <c r="B329" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>62.22</v>
+      </c>
+      <c r="B330" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>73.13</v>
+      </c>
+      <c r="B331" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>45.7</v>
+      </c>
+      <c r="B332" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>45.41</v>
+      </c>
+      <c r="B333" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>76.33</v>
+      </c>
+      <c r="B334" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>63.58</v>
+      </c>
+      <c r="B335" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>74.62</v>
+      </c>
+      <c r="B336" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>44.65</v>
+      </c>
+      <c r="B337" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>49.55</v>
+      </c>
+      <c r="B338" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>58.39</v>
+      </c>
+      <c r="B339" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>79.540000000000006</v>
+      </c>
+      <c r="B340" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>48.71</v>
+      </c>
+      <c r="B341" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="B342" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>58.77</v>
+      </c>
+      <c r="B343" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>80.23</v>
+      </c>
+      <c r="B344" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>39.380000000000003</v>
+      </c>
+      <c r="B345" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>69.02</v>
+      </c>
+      <c r="B346" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="B347" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>43.74</v>
+      </c>
+      <c r="B348" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>36.07</v>
+      </c>
+      <c r="B349" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>56.72</v>
+      </c>
+      <c r="B350" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="B351" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>37.369999999999997</v>
+      </c>
+      <c r="B352" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>41.99</v>
+      </c>
+      <c r="B353" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>54.91</v>
+      </c>
+      <c r="B354" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>35.659999999999997</v>
+      </c>
+      <c r="B355" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>49.15</v>
+      </c>
+      <c r="B356" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>36.19</v>
+      </c>
+      <c r="B357" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>34.29</v>
+      </c>
+      <c r="B358" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>38.72</v>
+      </c>
+      <c r="B359" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>39.46</v>
+      </c>
+      <c r="B360" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>27.78</v>
+      </c>
+      <c r="B361" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="B362" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>25.14</v>
+      </c>
+      <c r="B363" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>55.36</v>
+      </c>
+      <c r="B364" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>32.270000000000003</v>
+      </c>
+      <c r="B365" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>59.74</v>
+      </c>
+      <c r="B366" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>52.98</v>
+      </c>
+      <c r="B367" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>30.25</v>
+      </c>
+      <c r="B368" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="B369" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>49.86</v>
+      </c>
+      <c r="B370" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>38.590000000000003</v>
+      </c>
+      <c r="B371" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>42.64</v>
+      </c>
+      <c r="B372" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>34.590000000000003</v>
+      </c>
+      <c r="B373" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>30.94</v>
+      </c>
+      <c r="B374" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>36.86</v>
+      </c>
+      <c r="B375" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>40.54</v>
+      </c>
+      <c r="B376" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>79.209999999999994</v>
+      </c>
+      <c r="B377" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="B378" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>36.97</v>
+      </c>
+      <c r="B379" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>38.82</v>
+      </c>
+      <c r="B380" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>30.06</v>
+      </c>
+      <c r="B381" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>29.09</v>
+      </c>
+      <c r="B382" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>38.17</v>
+      </c>
+      <c r="B383" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>41.39</v>
+      </c>
+      <c r="B384" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>39.26</v>
+      </c>
+      <c r="B385" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>32.619999999999997</v>
+      </c>
+      <c r="B386" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>7.52</v>
+      </c>
+      <c r="B387" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>9.11</v>
+      </c>
+      <c r="B388" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>7.88</v>
+      </c>
+      <c r="B389" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>7.68</v>
+      </c>
+      <c r="B390" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>6.41</v>
+      </c>
+      <c r="B391" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>10.64</v>
+      </c>
+      <c r="B392" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>7.52</v>
+      </c>
+      <c r="B393" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>9.42</v>
+      </c>
+      <c r="B394" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>8.51</v>
+      </c>
+      <c r="B395" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>9.61</v>
+      </c>
+      <c r="B396" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>8.61</v>
+      </c>
+      <c r="B397" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>9.07</v>
+      </c>
+      <c r="B398" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>3.54</v>
+      </c>
+      <c r="B399" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>12.83</v>
+      </c>
+      <c r="B400" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>9.48</v>
+      </c>
+      <c r="B401" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="B402" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>7.88</v>
+      </c>
+      <c r="B403" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>9.82</v>
+      </c>
+      <c r="B404" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>12.69</v>
+      </c>
+      <c r="B405" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>13.04</v>
+      </c>
+      <c r="B406" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="B407" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>6.92</v>
+      </c>
+      <c r="B408" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>14.44</v>
+      </c>
+      <c r="B409" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>10.99</v>
+      </c>
+      <c r="B410" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>7.09</v>
+      </c>
+      <c r="B411" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>5.38</v>
+      </c>
+      <c r="B412" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>13.67</v>
+      </c>
+      <c r="B413" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
+        <v>10.08</v>
+      </c>
+      <c r="B414" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="B415" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
+        <v>8.01</v>
+      </c>
+      <c r="B416" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
+        <v>13.53</v>
+      </c>
+      <c r="B417" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="B418" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
+        <v>16.23</v>
+      </c>
+      <c r="B419" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
+        <v>23.16</v>
+      </c>
+      <c r="B420" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
+        <v>23.13</v>
+      </c>
+      <c r="B421" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
+        <v>10.95</v>
+      </c>
+      <c r="B422" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="B423" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
+        <v>14.29</v>
+      </c>
+      <c r="B424" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="B425" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="B426" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="B427" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
+        <v>12.49</v>
+      </c>
+      <c r="B428" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
+        <v>8.98</v>
+      </c>
+      <c r="B429" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
+        <v>12.01</v>
+      </c>
+      <c r="B430" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
+        <v>15.84</v>
+      </c>
+      <c r="B431" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
+        <v>8.89</v>
+      </c>
+      <c r="B432" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
+        <v>13.27</v>
+      </c>
+      <c r="B433" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
+        <v>12.65</v>
+      </c>
+      <c r="B434" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="B435" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
+        <v>19.48</v>
+      </c>
+      <c r="B436" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
+        <v>9.67</v>
+      </c>
+      <c r="B437" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
+        <v>13.59</v>
+      </c>
+      <c r="B438" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
+        <v>19.41</v>
+      </c>
+      <c r="B439" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
+        <v>11.31</v>
+      </c>
+      <c r="B440" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B441" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
+        <v>13.27</v>
+      </c>
+      <c r="B442" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
+        <v>13.49</v>
+      </c>
+      <c r="B443" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="B444" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="B445" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <v>14.14</v>
+      </c>
+      <c r="B446" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
+        <v>21.72</v>
+      </c>
+      <c r="B447" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
+        <v>11.09</v>
+      </c>
+      <c r="B448" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="B449" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
+        <v>14.45</v>
+      </c>
+      <c r="B450" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
+        <v>13.42</v>
+      </c>
+      <c r="B451" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
+        <v>15.05</v>
+      </c>
+      <c r="B452" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
+        <v>30.29</v>
+      </c>
+      <c r="B453" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
+        <v>49.38</v>
+      </c>
+      <c r="B454" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
+        <v>29.6</v>
+      </c>
+      <c r="B455" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
+        <v>23.63</v>
+      </c>
+      <c r="B456" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
+        <v>14.75</v>
+      </c>
+      <c r="B457" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
+        <v>11.69</v>
+      </c>
+      <c r="B458" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="B459" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
+        <v>22.55</v>
+      </c>
+      <c r="B460" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
+        <v>24.88</v>
+      </c>
+      <c r="B461" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
+        <v>31.34</v>
+      </c>
+      <c r="B462" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
+        <v>12.87</v>
+      </c>
+      <c r="B463" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
+        <v>29.6</v>
+      </c>
+      <c r="B464" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
+        <v>29.12</v>
+      </c>
+      <c r="B465" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
+        <v>30.62</v>
+      </c>
+      <c r="B466" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
+        <v>35.659999999999997</v>
+      </c>
+      <c r="B467" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="1">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="B468" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
+        <v>25.41</v>
+      </c>
+      <c r="B469" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
+        <v>29.42</v>
+      </c>
+      <c r="B470" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
+        <v>30.39</v>
+      </c>
+      <c r="B471" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
+        <v>30.72</v>
+      </c>
+      <c r="B472" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
+        <v>30.04</v>
+      </c>
+      <c r="B473" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
+        <v>27.24</v>
+      </c>
+      <c r="B474" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
+        <v>25.49</v>
+      </c>
+      <c r="B475" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
+        <v>32.659999999999997</v>
+      </c>
+      <c r="B476" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
+        <v>38.64</v>
+      </c>
+      <c r="B477" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
+        <v>29.3</v>
+      </c>
+      <c r="B478" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
+        <v>26.7</v>
+      </c>
+      <c r="B479" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
+        <v>33.630000000000003</v>
+      </c>
+      <c r="B480" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
+        <v>34.75</v>
+      </c>
+      <c r="B481" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
+        <v>29.88</v>
+      </c>
+      <c r="B482" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
+        <v>29.2</v>
+      </c>
+      <c r="B483" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
+        <v>31.14</v>
+      </c>
+      <c r="B484" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
+        <v>34.61</v>
+      </c>
+      <c r="B485" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
+        <v>29.74</v>
+      </c>
+      <c r="B486" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
+        <v>26.34</v>
+      </c>
+      <c r="B487" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
+        <v>36.53</v>
+      </c>
+      <c r="B488" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
+        <v>37.17</v>
+      </c>
+      <c r="B489" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="B490" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>28.42</v>
+      </c>
+      <c r="B491" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>31.07</v>
+      </c>
+      <c r="B492" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
+        <v>21.06</v>
+      </c>
+      <c r="B493" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
+        <v>35.43</v>
+      </c>
+      <c r="B494" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
+        <v>29.14</v>
+      </c>
+      <c r="B495" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
+        <v>39.6</v>
+      </c>
+      <c r="B496" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
+        <v>32.03</v>
+      </c>
+      <c r="B497" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
+        <v>41.3</v>
+      </c>
+      <c r="B498" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
+        <v>31.68</v>
+      </c>
+      <c r="B499" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="B500" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
+        <v>30.29</v>
+      </c>
+      <c r="B501" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="B502" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="B503" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
+        <v>33.36</v>
+      </c>
+      <c r="B504" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
+        <v>35.83</v>
+      </c>
+      <c r="B505" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
+        <v>28.99</v>
+      </c>
+      <c r="B506" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
+        <v>38.18</v>
+      </c>
+      <c r="B507" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
+        <v>40.369999999999997</v>
+      </c>
+      <c r="B508" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
+        <v>44.45</v>
+      </c>
+      <c r="B509" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="B510" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="B511" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
+        <v>38.15</v>
+      </c>
+      <c r="B512" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
+        <v>42.09</v>
+      </c>
+      <c r="B513" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="B514" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="B515" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
+        <v>30.2</v>
+      </c>
+      <c r="B516" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
+        <v>46.21</v>
+      </c>
+      <c r="B517" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
+        <v>43.54</v>
+      </c>
+      <c r="B518" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
+        <v>28.98</v>
+      </c>
+      <c r="B519" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="1">
+        <v>36.130000000000003</v>
+      </c>
+      <c r="B520" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="1">
+        <v>37.33</v>
+      </c>
+      <c r="B521" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="1">
+        <v>45.28</v>
+      </c>
+      <c r="B522" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="1">
+        <v>37.99</v>
+      </c>
+      <c r="B523" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="1">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="B524" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="1">
+        <v>45.25</v>
+      </c>
+      <c r="B525" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="1">
+        <v>42.31</v>
+      </c>
+      <c r="B526" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="1">
+        <v>36.83</v>
+      </c>
+      <c r="B527" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="1">
+        <v>38.44</v>
+      </c>
+      <c r="B528" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
+        <v>43.46</v>
+      </c>
+      <c r="B529" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="1">
+        <v>41.64</v>
+      </c>
+      <c r="B530" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="1">
+        <v>41.09</v>
+      </c>
+      <c r="B531" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="1">
+        <v>55.54</v>
+      </c>
+      <c r="B532" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="1">
+        <v>43.87</v>
+      </c>
+      <c r="B533" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="1">
+        <v>49.16</v>
+      </c>
+      <c r="B534" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="1">
+        <v>31.64</v>
+      </c>
+      <c r="B535" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="1">
+        <v>48.28</v>
+      </c>
+      <c r="B536" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="1">
+        <v>29.65</v>
+      </c>
+      <c r="B537" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" s="1">
+        <v>48.02</v>
+      </c>
+      <c r="B538" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="1">
+        <v>56.11</v>
+      </c>
+      <c r="B539" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="1">
+        <v>57.08</v>
+      </c>
+      <c r="B540" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" s="1">
+        <v>20.79</v>
+      </c>
+      <c r="B541" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" s="1">
+        <v>21.31</v>
+      </c>
+      <c r="B542" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" s="1">
+        <v>11.57</v>
+      </c>
+      <c r="B543" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" s="1">
+        <v>23.15</v>
+      </c>
+      <c r="B544" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" s="1">
+        <v>15.65</v>
+      </c>
+      <c r="B545" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="1">
+        <v>21.78</v>
+      </c>
+      <c r="B546" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="1">
+        <v>27.34</v>
+      </c>
+      <c r="B547" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="1">
+        <v>28.42</v>
+      </c>
+      <c r="B548" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="1">
+        <v>23.49</v>
+      </c>
+      <c r="B549" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="1">
+        <v>17.45</v>
+      </c>
+      <c r="B550" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="1">
+        <v>20.29</v>
+      </c>
+      <c r="B551" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
+        <v>19.88</v>
+      </c>
+      <c r="B552" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="1">
+        <v>35.74</v>
+      </c>
+      <c r="B553" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
+        <v>36.78</v>
+      </c>
+      <c r="B554" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="B555" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
+        <v>23.21</v>
+      </c>
+      <c r="B556" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
+        <v>27.66</v>
+      </c>
+      <c r="B557" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
+        <v>40.630000000000003</v>
+      </c>
+      <c r="B558" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
+        <v>29.06</v>
+      </c>
+      <c r="B559" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
+        <v>30.65</v>
+      </c>
+      <c r="B560" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
+        <v>61.62</v>
+      </c>
+      <c r="B561" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
+        <v>50.48</v>
+      </c>
+      <c r="B562" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="1">
+        <v>40.090000000000003</v>
+      </c>
+      <c r="B563" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
+        <v>29.84</v>
+      </c>
+      <c r="B564" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="1">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="B565" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="1">
+        <v>52.99</v>
+      </c>
+      <c r="B566" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" s="1">
+        <v>42.91</v>
+      </c>
+      <c r="B567" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
+        <v>40.64</v>
+      </c>
+      <c r="B568" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="1">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="B569" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" s="1">
+        <v>54.17</v>
+      </c>
+      <c r="B570" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" s="1">
+        <v>56.93</v>
+      </c>
+      <c r="B571" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" s="1">
+        <v>66.069999999999993</v>
+      </c>
+      <c r="B572" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="B573" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" s="1">
+        <v>64.2</v>
+      </c>
+      <c r="B574" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="1">
+        <v>32.06</v>
+      </c>
+      <c r="B575" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="1">
+        <v>52.88</v>
+      </c>
+      <c r="B576" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="1">
+        <v>54.97</v>
+      </c>
+      <c r="B577" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" s="1">
+        <v>43.75</v>
+      </c>
+      <c r="B578" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="B579" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="1">
+        <v>56.55</v>
+      </c>
+      <c r="B580" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="1">
+        <v>52.48</v>
+      </c>
+      <c r="B581" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="1">
+        <v>47.57</v>
+      </c>
+      <c r="B582" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" s="1">
+        <v>63.57</v>
+      </c>
+      <c r="B583" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" s="1">
+        <v>56.57</v>
+      </c>
+      <c r="B584" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" s="1">
+        <v>45.56</v>
+      </c>
+      <c r="B585" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" s="1">
+        <v>68.63</v>
+      </c>
+      <c r="B586" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" s="1">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="B587" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" s="1">
+        <v>63.53</v>
+      </c>
+      <c r="B588" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" s="1">
+        <v>66.88</v>
+      </c>
+      <c r="B589" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" s="1">
+        <v>51.89</v>
+      </c>
+      <c r="B590" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" s="1">
+        <v>62.92</v>
+      </c>
+      <c r="B591" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" s="1">
+        <v>71.55</v>
+      </c>
+      <c r="B592" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" s="1">
+        <v>58.6</v>
+      </c>
+      <c r="B593" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" s="1">
+        <v>75.55</v>
+      </c>
+      <c r="B594" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" s="1">
+        <v>78.95</v>
+      </c>
+      <c r="B595" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" s="1">
+        <v>80.12</v>
+      </c>
+      <c r="B596" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" s="1">
+        <v>87.65</v>
+      </c>
+      <c r="B597" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" s="1">
+        <v>63.97</v>
+      </c>
+      <c r="B598" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" s="1">
+        <v>62.57</v>
+      </c>
+      <c r="B599" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" s="1">
+        <v>74.78</v>
+      </c>
+      <c r="B600" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" s="1">
+        <v>74.040000000000006</v>
+      </c>
+      <c r="B601" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" s="1">
+        <v>63.49</v>
+      </c>
+      <c r="B602" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" s="1">
+        <v>56.1</v>
+      </c>
+      <c r="B603" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" s="1">
+        <v>68.14</v>
+      </c>
+      <c r="B604" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" s="1">
+        <v>65.55</v>
+      </c>
+      <c r="B605" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" s="1">
+        <v>64.39</v>
+      </c>
+      <c r="B606" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" s="1">
+        <v>81.239999999999995</v>
+      </c>
+      <c r="B607" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" s="1">
+        <v>67.34</v>
+      </c>
+      <c r="B608" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" s="1">
+        <v>58.38</v>
+      </c>
+      <c r="B609" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" s="1">
+        <v>74.55</v>
+      </c>
+      <c r="B610" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" s="1">
+        <v>84.6</v>
+      </c>
+      <c r="B611" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" s="1">
+        <v>75.42</v>
+      </c>
+      <c r="B612" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" s="1">
+        <v>86.31</v>
+      </c>
+      <c r="B613" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" s="1">
+        <v>86.29</v>
+      </c>
+      <c r="B614" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" s="1">
+        <v>78.03</v>
+      </c>
+      <c r="B615" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" s="1">
+        <v>74.010000000000005</v>
+      </c>
+      <c r="B616" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" s="1">
+        <v>88.81</v>
+      </c>
+      <c r="B617" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" s="1">
+        <v>82.29</v>
+      </c>
+      <c r="B618" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" s="1">
+        <v>79.239999999999995</v>
+      </c>
+      <c r="B619" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" s="1">
+        <v>62.79</v>
+      </c>
+      <c r="B620" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" s="1">
+        <v>94.2</v>
+      </c>
+      <c r="B621" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" s="1">
+        <v>68.81</v>
+      </c>
+      <c r="B622" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" s="1">
+        <v>80.36</v>
+      </c>
+      <c r="B623" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" s="1">
+        <v>87.56</v>
+      </c>
+      <c r="B624" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" s="1">
+        <v>82.8</v>
+      </c>
+      <c r="B625" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" s="1">
+        <v>95.46</v>
+      </c>
+      <c r="B626" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" s="1">
+        <v>73.58</v>
+      </c>
+      <c r="B627" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" s="1">
+        <v>71.37</v>
+      </c>
+      <c r="B628" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" s="1">
+        <v>64.28</v>
+      </c>
+      <c r="B629" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" s="1">
+        <v>76.75</v>
+      </c>
+      <c r="B630" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" s="1">
+        <v>85.26</v>
+      </c>
+      <c r="B631" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" s="1">
+        <v>94.55</v>
+      </c>
+      <c r="B632" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" s="1">
+        <v>76.11</v>
+      </c>
+      <c r="B633" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" s="1">
+        <v>55.79</v>
+      </c>
+      <c r="B634" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" s="1">
+        <v>87.71</v>
+      </c>
+      <c r="B635" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" s="1">
+        <v>89.05</v>
+      </c>
+      <c r="B636" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" s="1">
+        <v>97.55</v>
+      </c>
+      <c r="B637" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" s="1">
+        <v>36.03</v>
+      </c>
+      <c r="B638" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" s="1">
+        <v>85.99</v>
+      </c>
+      <c r="B639" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" s="1">
+        <v>77.13</v>
+      </c>
+      <c r="B640" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" s="1">
+        <v>69.86</v>
+      </c>
+      <c r="B641" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" s="1">
+        <v>88.59</v>
+      </c>
+      <c r="B642" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" s="1">
+        <v>45.23</v>
+      </c>
+      <c r="B643" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" s="1">
+        <v>89.76</v>
+      </c>
+      <c r="B644" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" s="1">
+        <v>78.13</v>
+      </c>
+      <c r="B645" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" s="1">
+        <v>74.7</v>
+      </c>
+      <c r="B646" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" s="1">
+        <v>90.87</v>
+      </c>
+      <c r="B647" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" s="1">
+        <v>93.8</v>
+      </c>
+      <c r="B648" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" s="1">
+        <v>41.42</v>
+      </c>
+      <c r="B649" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" s="1">
+        <v>68.39</v>
+      </c>
+      <c r="B650" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" s="1">
+        <v>84.38</v>
+      </c>
+      <c r="B651" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" s="1">
+        <v>57.45</v>
+      </c>
+      <c r="B652" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" s="1">
+        <v>75.849999999999994</v>
+      </c>
+      <c r="B653" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" s="1">
+        <v>91.26</v>
+      </c>
+      <c r="B654" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" s="1">
+        <v>64.37</v>
+      </c>
+      <c r="B655" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" s="1">
+        <v>95.97</v>
+      </c>
+      <c r="B656" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" s="1">
+        <v>77.62</v>
+      </c>
+      <c r="B657" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" s="1">
+        <v>92.93</v>
+      </c>
+      <c r="B658" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" s="1">
+        <v>79.48</v>
+      </c>
+      <c r="B659" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" s="1">
+        <v>81.22</v>
+      </c>
+      <c r="B660" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" s="1">
+        <v>92.59</v>
+      </c>
+      <c r="B661" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" s="1">
+        <v>98.04</v>
+      </c>
+      <c r="B662" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" s="1">
+        <v>93.26</v>
+      </c>
+      <c r="B663" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" s="1">
+        <v>90.21</v>
+      </c>
+      <c r="B664" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" s="1">
+        <v>80.48</v>
+      </c>
+      <c r="B665" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" s="1">
+        <v>87.55</v>
+      </c>
+      <c r="B666" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" s="1">
+        <v>98.28</v>
+      </c>
+      <c r="B667" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" s="1">
+        <v>57.92</v>
+      </c>
+      <c r="B668" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" s="1">
+        <v>84.2</v>
+      </c>
+      <c r="B669" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" s="1">
+        <v>83.23</v>
+      </c>
+      <c r="B670" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671" s="1">
+        <v>65.77</v>
+      </c>
+      <c r="B671" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672" s="1">
+        <v>89.05</v>
+      </c>
+      <c r="B672" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673" s="1">
+        <v>76.3</v>
+      </c>
+      <c r="B673" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" s="1">
+        <v>94.74</v>
+      </c>
+      <c r="B674" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675" s="1">
+        <v>67.84</v>
+      </c>
+      <c r="B675" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" s="1">
+        <v>96.69</v>
+      </c>
+      <c r="B676" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" s="1">
+        <v>72.989999999999995</v>
+      </c>
+      <c r="B677" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" s="1">
+        <v>69.45</v>
+      </c>
+      <c r="B678" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" s="1">
+        <v>42.82</v>
+      </c>
+      <c r="B679" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" s="1">
+        <v>94.25</v>
+      </c>
+      <c r="B680" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681" s="1">
+        <v>86.09</v>
+      </c>
+      <c r="B681" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" s="1">
+        <v>70.69</v>
+      </c>
+      <c r="B682" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" s="1">
+        <v>63.76</v>
+      </c>
+      <c r="B683" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" s="1">
+        <v>78.91</v>
+      </c>
+      <c r="B684" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" s="1">
+        <v>83.64</v>
+      </c>
+      <c r="B685" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" s="1">
+        <v>59.11</v>
+      </c>
+      <c r="B686" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" s="1">
+        <v>60.81</v>
+      </c>
+      <c r="B687" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" s="1">
+        <v>97.69</v>
+      </c>
+      <c r="B688" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" s="1">
+        <v>39.78</v>
+      </c>
+      <c r="B689" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" s="1">
+        <v>91.98</v>
+      </c>
+      <c r="B690" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" s="1">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="B691" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" s="1">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="B692" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" s="1">
+        <v>99.79</v>
+      </c>
+      <c r="B693" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" s="1">
+        <v>71.290000000000006</v>
+      </c>
+      <c r="B694" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -762,16 +6736,16 @@
         <v>73.23</v>
       </c>
       <c r="F3" s="1">
-        <v>122.67</v>
+        <v>83.88</v>
       </c>
       <c r="G3" s="1">
-        <v>9.11</v>
+        <v>7.52</v>
       </c>
       <c r="H3" s="1">
-        <v>29.12</v>
+        <v>29.6</v>
       </c>
       <c r="I3" s="1">
-        <v>21.31</v>
+        <v>20.79</v>
       </c>
       <c r="J3" s="1">
         <v>79.239999999999995</v>
@@ -795,16 +6769,16 @@
         <v>75.27</v>
       </c>
       <c r="F4" s="1">
-        <v>72.180000000000007</v>
+        <v>83.88</v>
       </c>
       <c r="G4" s="1">
-        <v>7.88</v>
+        <v>7.52</v>
       </c>
       <c r="H4" s="1">
-        <v>30.62</v>
+        <v>29.6</v>
       </c>
       <c r="I4" s="1">
-        <v>11.57</v>
+        <v>20.79</v>
       </c>
       <c r="J4" s="1">
         <v>62.79</v>
@@ -828,16 +6802,16 @@
         <v>76.819999999999993</v>
       </c>
       <c r="F5" s="1">
-        <v>73.39</v>
+        <v>83.88</v>
       </c>
       <c r="G5" s="1">
-        <v>7.68</v>
+        <v>7.52</v>
       </c>
       <c r="H5" s="1">
-        <v>35.659999999999997</v>
+        <v>29.6</v>
       </c>
       <c r="I5" s="1">
-        <v>23.15</v>
+        <v>20.79</v>
       </c>
       <c r="J5" s="1">
         <v>94.2</v>
@@ -861,16 +6835,16 @@
         <v>65.66</v>
       </c>
       <c r="F6" s="1">
-        <v>97.22</v>
+        <v>83.88</v>
       </c>
       <c r="G6" s="1">
-        <v>6.41</v>
+        <v>7.52</v>
       </c>
       <c r="H6" s="1">
-        <v>19.489999999999998</v>
+        <v>29.6</v>
       </c>
       <c r="I6" s="1">
-        <v>15.65</v>
+        <v>20.79</v>
       </c>
       <c r="J6" s="1">
         <v>68.81</v>
@@ -894,16 +6868,16 @@
         <v>79.459999999999994</v>
       </c>
       <c r="F7" s="1">
-        <v>72.150000000000006</v>
+        <v>83.88</v>
       </c>
       <c r="G7" s="1">
-        <v>10.64</v>
+        <v>7.52</v>
       </c>
       <c r="H7" s="1">
-        <v>25.41</v>
+        <v>29.6</v>
       </c>
       <c r="I7" s="1">
-        <v>21.78</v>
+        <v>20.79</v>
       </c>
       <c r="J7" s="1">
         <v>80.36</v>
@@ -924,19 +6898,19 @@
         <v>71.459999999999994</v>
       </c>
       <c r="E8" s="1">
-        <v>75.63</v>
+        <v>79.459999999999994</v>
       </c>
       <c r="F8" s="1">
-        <v>75.22</v>
+        <v>83.88</v>
       </c>
       <c r="G8" s="1">
         <v>7.52</v>
       </c>
       <c r="H8" s="1">
-        <v>29.42</v>
+        <v>29.6</v>
       </c>
       <c r="I8" s="1">
-        <v>27.34</v>
+        <v>20.79</v>
       </c>
       <c r="J8" s="1">
         <v>87.56</v>
@@ -960,16 +6934,16 @@
         <v>73.58</v>
       </c>
       <c r="F9" s="1">
-        <v>66.569999999999993</v>
+        <v>83.88</v>
       </c>
       <c r="G9" s="1">
-        <v>9.42</v>
+        <v>7.52</v>
       </c>
       <c r="H9" s="1">
-        <v>30.39</v>
+        <v>29.6</v>
       </c>
       <c r="I9" s="1">
-        <v>28.42</v>
+        <v>20.79</v>
       </c>
       <c r="J9" s="1">
         <v>82.8</v>
@@ -993,16 +6967,16 @@
         <v>73.709999999999994</v>
       </c>
       <c r="F10" s="1">
-        <v>73.010000000000005</v>
+        <v>83.88</v>
       </c>
       <c r="G10" s="1">
-        <v>8.51</v>
+        <v>7.52</v>
       </c>
       <c r="H10" s="1">
-        <v>30.72</v>
+        <v>29.6</v>
       </c>
       <c r="I10" s="1">
-        <v>23.49</v>
+        <v>20.79</v>
       </c>
       <c r="J10" s="1">
         <v>95.46</v>
@@ -1026,16 +7000,16 @@
         <v>69.41</v>
       </c>
       <c r="F11" s="1">
-        <v>70.11</v>
+        <v>83.88</v>
       </c>
       <c r="G11" s="1">
-        <v>9.61</v>
+        <v>7.52</v>
       </c>
       <c r="H11" s="1">
-        <v>30.04</v>
+        <v>29.6</v>
       </c>
       <c r="I11" s="1">
-        <v>17.45</v>
+        <v>20.79</v>
       </c>
       <c r="J11" s="1">
         <v>73.58</v>
@@ -1059,16 +7033,16 @@
         <v>74.36</v>
       </c>
       <c r="F12" s="1">
-        <v>104.49</v>
+        <v>83.88</v>
       </c>
       <c r="G12" s="1">
-        <v>8.61</v>
+        <v>7.52</v>
       </c>
       <c r="H12" s="1">
-        <v>27.24</v>
+        <v>29.6</v>
       </c>
       <c r="I12" s="1">
-        <v>20.29</v>
+        <v>20.79</v>
       </c>
       <c r="J12" s="1">
         <v>71.37</v>
@@ -1092,16 +7066,16 @@
         <v>68.489999999999995</v>
       </c>
       <c r="F13" s="1">
-        <v>50.99</v>
+        <v>83.88</v>
       </c>
       <c r="G13" s="1">
-        <v>9.07</v>
+        <v>7.52</v>
       </c>
       <c r="H13" s="1">
-        <v>25.49</v>
+        <v>29.6</v>
       </c>
       <c r="I13" s="1">
-        <v>19.88</v>
+        <v>20.79</v>
       </c>
       <c r="J13" s="1">
         <v>64.28</v>
@@ -1125,16 +7099,16 @@
         <v>69.23</v>
       </c>
       <c r="F14" s="1">
-        <v>70.95</v>
+        <v>83.88</v>
       </c>
       <c r="G14" s="1">
-        <v>3.54</v>
+        <v>7.52</v>
       </c>
       <c r="H14" s="1">
-        <v>32.659999999999997</v>
+        <v>29.6</v>
       </c>
       <c r="I14" s="1">
-        <v>35.74</v>
+        <v>20.79</v>
       </c>
       <c r="J14" s="1">
         <v>76.75</v>
@@ -1158,16 +7132,16 @@
         <v>80.48</v>
       </c>
       <c r="F15" s="1">
-        <v>85.52</v>
+        <v>83.88</v>
       </c>
       <c r="G15" s="1">
-        <v>12.83</v>
+        <v>7.52</v>
       </c>
       <c r="H15" s="1">
-        <v>38.64</v>
+        <v>29.6</v>
       </c>
       <c r="I15" s="1">
-        <v>36.78</v>
+        <v>20.79</v>
       </c>
       <c r="J15" s="1">
         <v>85.26</v>
@@ -1191,16 +7165,16 @@
         <v>78.42</v>
       </c>
       <c r="F16" s="1">
-        <v>54.74</v>
+        <v>83.88</v>
       </c>
       <c r="G16" s="1">
-        <v>9.48</v>
+        <v>7.52</v>
       </c>
       <c r="H16" s="1">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="I16" s="1">
-        <v>39.159999999999997</v>
+        <v>20.79</v>
       </c>
       <c r="J16" s="1">
         <v>94.55</v>
@@ -1224,16 +7198,16 @@
         <v>63.75</v>
       </c>
       <c r="F17" s="1">
-        <v>54.17</v>
+        <v>83.88</v>
       </c>
       <c r="G17" s="1">
-        <v>10.6</v>
+        <v>7.52</v>
       </c>
       <c r="H17" s="1">
-        <v>26.7</v>
+        <v>29.6</v>
       </c>
       <c r="I17" s="1">
-        <v>23.21</v>
+        <v>20.79</v>
       </c>
       <c r="J17" s="1">
         <v>76.11</v>
@@ -1257,16 +7231,16 @@
         <v>71.27</v>
       </c>
       <c r="F18" s="1">
-        <v>68.16</v>
+        <v>83.88</v>
       </c>
       <c r="G18" s="1">
-        <v>7.88</v>
+        <v>7.52</v>
       </c>
       <c r="H18" s="1">
-        <v>33.630000000000003</v>
+        <v>29.6</v>
       </c>
       <c r="I18" s="1">
-        <v>27.66</v>
+        <v>20.79</v>
       </c>
       <c r="J18" s="1">
         <v>55.79</v>
@@ -1290,16 +7264,16 @@
         <v>74.88</v>
       </c>
       <c r="F19" s="1">
-        <v>65.33</v>
+        <v>83.88</v>
       </c>
       <c r="G19" s="1">
-        <v>9.82</v>
+        <v>7.52</v>
       </c>
       <c r="H19" s="1">
-        <v>34.75</v>
+        <v>29.6</v>
       </c>
       <c r="I19" s="1">
-        <v>40.630000000000003</v>
+        <v>20.79</v>
       </c>
       <c r="J19" s="1">
         <v>87.71</v>
@@ -1323,16 +7297,16 @@
         <v>65.599999999999994</v>
       </c>
       <c r="F20" s="1">
-        <v>50.05</v>
+        <v>83.88</v>
       </c>
       <c r="G20" s="1">
-        <v>12.69</v>
+        <v>7.52</v>
       </c>
       <c r="H20" s="1">
-        <v>29.88</v>
+        <v>29.6</v>
       </c>
       <c r="I20" s="1">
-        <v>29.06</v>
+        <v>20.79</v>
       </c>
       <c r="J20" s="1">
         <v>89.05</v>
@@ -1356,16 +7330,16 @@
         <v>71.64</v>
       </c>
       <c r="F21" s="1">
-        <v>50.77</v>
+        <v>83.88</v>
       </c>
       <c r="G21" s="1">
-        <v>13.04</v>
+        <v>7.52</v>
       </c>
       <c r="H21" s="1">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="I21" s="1">
-        <v>30.65</v>
+        <v>20.79</v>
       </c>
       <c r="J21" s="1">
         <v>97.55</v>
@@ -1389,16 +7363,16 @@
         <v>73.17</v>
       </c>
       <c r="F22" s="1">
-        <v>62.22</v>
+        <v>83.88</v>
       </c>
       <c r="G22" s="1">
-        <v>5.85</v>
+        <v>7.52</v>
       </c>
       <c r="H22" s="1">
-        <v>31.14</v>
+        <v>29.6</v>
       </c>
       <c r="I22" s="1">
-        <v>61.62</v>
+        <v>20.79</v>
       </c>
       <c r="J22" s="1">
         <v>36.03</v>
@@ -1422,16 +7396,16 @@
         <v>78.3</v>
       </c>
       <c r="F23" s="1">
-        <v>73.13</v>
+        <v>83.88</v>
       </c>
       <c r="G23" s="1">
-        <v>6.92</v>
+        <v>7.52</v>
       </c>
       <c r="H23" s="1">
-        <v>34.61</v>
+        <v>29.6</v>
       </c>
       <c r="I23" s="1">
-        <v>50.48</v>
+        <v>20.79</v>
       </c>
       <c r="J23" s="1">
         <v>85.99</v>
@@ -1455,16 +7429,16 @@
         <v>74.47</v>
       </c>
       <c r="F24" s="1">
-        <v>45.7</v>
+        <v>83.88</v>
       </c>
       <c r="G24" s="1">
-        <v>14.44</v>
+        <v>7.52</v>
       </c>
       <c r="H24" s="1">
-        <v>29.74</v>
+        <v>29.6</v>
       </c>
       <c r="I24" s="1">
-        <v>40.090000000000003</v>
+        <v>20.79</v>
       </c>
       <c r="J24" s="1">
         <v>77.13</v>
@@ -1488,16 +7462,16 @@
         <v>68.790000000000006</v>
       </c>
       <c r="F25" s="1">
-        <v>45.41</v>
+        <v>83.88</v>
       </c>
       <c r="G25" s="1">
-        <v>10.99</v>
+        <v>7.52</v>
       </c>
       <c r="H25" s="1">
-        <v>26.34</v>
+        <v>29.6</v>
       </c>
       <c r="I25" s="1">
-        <v>29.84</v>
+        <v>20.79</v>
       </c>
       <c r="J25" s="1">
         <v>69.86</v>
@@ -1521,23 +7495,23 @@
         <v>51.44</v>
       </c>
       <c r="F26" s="1">
-        <v>76.33</v>
+        <v>83.88</v>
       </c>
       <c r="G26" s="1">
-        <v>7.09</v>
+        <v>7.52</v>
       </c>
       <c r="H26" s="1">
-        <v>36.53</v>
+        <v>29.6</v>
       </c>
       <c r="I26" s="1">
-        <v>33.020000000000003</v>
+        <v>20.79</v>
       </c>
       <c r="J26" s="1">
         <v>88.59</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1554,16 +7528,16 @@
         <v>66.13</v>
       </c>
       <c r="F27" s="1">
-        <v>63.58</v>
+        <v>83.88</v>
       </c>
       <c r="G27" s="1">
-        <v>5.38</v>
+        <v>7.52</v>
       </c>
       <c r="H27" s="1">
-        <v>37.17</v>
+        <v>29.6</v>
       </c>
       <c r="I27" s="1">
-        <v>52.99</v>
+        <v>20.79</v>
       </c>
       <c r="J27" s="1">
         <v>45.23</v>
@@ -1587,16 +7561,16 @@
         <v>78.34</v>
       </c>
       <c r="F28" s="1">
-        <v>74.62</v>
+        <v>83.88</v>
       </c>
       <c r="G28" s="1">
-        <v>13.67</v>
+        <v>7.52</v>
       </c>
       <c r="H28" s="1">
-        <v>34.549999999999997</v>
+        <v>29.6</v>
       </c>
       <c r="I28" s="1">
-        <v>42.91</v>
+        <v>20.79</v>
       </c>
       <c r="J28" s="1">
         <v>89.76</v>
@@ -1620,16 +7594,16 @@
         <v>60.46</v>
       </c>
       <c r="F29" s="1">
-        <v>44.65</v>
+        <v>83.88</v>
       </c>
       <c r="G29" s="1">
-        <v>10.08</v>
+        <v>7.52</v>
       </c>
       <c r="H29" s="1">
-        <v>28.42</v>
+        <v>29.6</v>
       </c>
       <c r="I29" s="1">
-        <v>40.64</v>
+        <v>20.79</v>
       </c>
       <c r="J29" s="1">
         <v>78.13</v>
@@ -1653,16 +7627,16 @@
         <v>63.73</v>
       </c>
       <c r="F30" s="1">
-        <v>49.55</v>
+        <v>83.88</v>
       </c>
       <c r="G30" s="1">
-        <v>8.7100000000000009</v>
+        <v>7.52</v>
       </c>
       <c r="H30" s="1">
-        <v>31.07</v>
+        <v>29.6</v>
       </c>
       <c r="I30" s="1">
-        <v>32.869999999999997</v>
+        <v>20.79</v>
       </c>
       <c r="J30" s="1">
         <v>74.7</v>
@@ -1686,16 +7660,16 @@
         <v>52.06</v>
       </c>
       <c r="F31" s="1">
-        <v>58.39</v>
+        <v>83.88</v>
       </c>
       <c r="G31" s="1">
-        <v>8.01</v>
+        <v>7.52</v>
       </c>
       <c r="H31" s="1">
-        <v>21.06</v>
+        <v>29.6</v>
       </c>
       <c r="I31" s="1">
-        <v>54.17</v>
+        <v>20.79</v>
       </c>
       <c r="J31" s="1">
         <v>90.87</v>
@@ -1719,16 +7693,16 @@
         <v>72.97</v>
       </c>
       <c r="F32" s="1">
-        <v>79.540000000000006</v>
+        <v>83.88</v>
       </c>
       <c r="G32" s="1">
-        <v>13.53</v>
+        <v>7.52</v>
       </c>
       <c r="H32" s="1">
-        <v>35.43</v>
+        <v>29.6</v>
       </c>
       <c r="I32" s="1">
-        <v>56.93</v>
+        <v>20.79</v>
       </c>
       <c r="J32" s="1">
         <v>93.8</v>
@@ -1752,16 +7726,16 @@
         <v>60.04</v>
       </c>
       <c r="F33" s="1">
-        <v>48.71</v>
+        <v>83.88</v>
       </c>
       <c r="G33" s="1">
-        <v>2.85</v>
+        <v>7.52</v>
       </c>
       <c r="H33" s="1">
-        <v>29.14</v>
+        <v>29.6</v>
       </c>
       <c r="I33" s="1">
-        <v>66.069999999999993</v>
+        <v>20.79</v>
       </c>
       <c r="J33" s="1">
         <v>41.42</v>
@@ -1785,16 +7759,16 @@
         <v>83.59</v>
       </c>
       <c r="F34" s="1">
-        <v>75.16</v>
+        <v>83.88</v>
       </c>
       <c r="G34" s="1">
-        <v>16.23</v>
+        <v>7.52</v>
       </c>
       <c r="H34" s="1">
-        <v>39.6</v>
+        <v>29.6</v>
       </c>
       <c r="I34" s="1">
-        <v>54.8</v>
+        <v>20.79</v>
       </c>
       <c r="J34" s="1">
         <v>68.39</v>
@@ -1818,16 +7792,16 @@
         <v>86.89</v>
       </c>
       <c r="F35" s="1">
-        <v>58.77</v>
+        <v>83.88</v>
       </c>
       <c r="G35" s="1">
-        <v>23.16</v>
+        <v>7.52</v>
       </c>
       <c r="H35" s="1">
-        <v>32.03</v>
+        <v>29.6</v>
       </c>
       <c r="I35" s="1">
-        <v>64.2</v>
+        <v>20.79</v>
       </c>
       <c r="J35" s="1">
         <v>84.38</v>
@@ -1851,16 +7825,16 @@
         <v>71.069999999999993</v>
       </c>
       <c r="F36" s="1">
-        <v>80.23</v>
+        <v>83.88</v>
       </c>
       <c r="G36" s="1">
-        <v>23.13</v>
+        <v>7.52</v>
       </c>
       <c r="H36" s="1">
-        <v>41.3</v>
+        <v>29.6</v>
       </c>
       <c r="I36" s="1">
-        <v>32.06</v>
+        <v>20.79</v>
       </c>
       <c r="J36" s="1">
         <v>57.45</v>
@@ -1884,16 +7858,16 @@
         <v>62.52</v>
       </c>
       <c r="F37" s="1">
-        <v>39.380000000000003</v>
+        <v>83.88</v>
       </c>
       <c r="G37" s="1">
-        <v>10.95</v>
+        <v>7.52</v>
       </c>
       <c r="H37" s="1">
-        <v>31.68</v>
+        <v>29.6</v>
       </c>
       <c r="I37" s="1">
-        <v>52.88</v>
+        <v>20.79</v>
       </c>
       <c r="J37" s="1">
         <v>75.849999999999994</v>
@@ -1917,16 +7891,16 @@
         <v>66.56</v>
       </c>
       <c r="F38" s="1">
-        <v>69.02</v>
+        <v>83.88</v>
       </c>
       <c r="G38" s="1">
-        <v>9.4499999999999993</v>
+        <v>7.52</v>
       </c>
       <c r="H38" s="1">
-        <v>34.869999999999997</v>
+        <v>29.6</v>
       </c>
       <c r="I38" s="1">
-        <v>54.97</v>
+        <v>20.79</v>
       </c>
       <c r="J38" s="1">
         <v>91.26</v>
@@ -1950,16 +7924,16 @@
         <v>58.87</v>
       </c>
       <c r="F39" s="1">
-        <v>33.020000000000003</v>
+        <v>83.88</v>
       </c>
       <c r="G39" s="1">
-        <v>14.29</v>
+        <v>7.52</v>
       </c>
       <c r="H39" s="1">
-        <v>30.29</v>
+        <v>29.6</v>
       </c>
       <c r="I39" s="1">
-        <v>43.75</v>
+        <v>20.79</v>
       </c>
       <c r="J39" s="1">
         <v>64.37</v>
@@ -1983,16 +7957,16 @@
         <v>63.27</v>
       </c>
       <c r="F40" s="1">
-        <v>43.74</v>
+        <v>83.88</v>
       </c>
       <c r="G40" s="1">
-        <v>3.78</v>
+        <v>7.52</v>
       </c>
       <c r="H40" s="1">
-        <v>39.880000000000003</v>
+        <v>29.6</v>
       </c>
       <c r="I40" s="1">
-        <v>56.2</v>
+        <v>20.79</v>
       </c>
       <c r="J40" s="1">
         <v>95.97</v>
@@ -2016,16 +7990,16 @@
         <v>54.99</v>
       </c>
       <c r="F41" s="1">
-        <v>36.07</v>
+        <v>83.88</v>
       </c>
       <c r="G41" s="1">
-        <v>11.2</v>
+        <v>7.52</v>
       </c>
       <c r="H41" s="1">
-        <v>34.840000000000003</v>
+        <v>29.6</v>
       </c>
       <c r="I41" s="1">
-        <v>56.55</v>
+        <v>20.79</v>
       </c>
       <c r="J41" s="1">
         <v>77.62</v>
@@ -2049,16 +8023,16 @@
         <v>55.48</v>
       </c>
       <c r="F42" s="1">
-        <v>56.72</v>
+        <v>83.88</v>
       </c>
       <c r="G42" s="1">
-        <v>9.9600000000000009</v>
+        <v>7.52</v>
       </c>
       <c r="H42" s="1">
-        <v>33.36</v>
+        <v>29.6</v>
       </c>
       <c r="I42" s="1">
-        <v>52.48</v>
+        <v>20.79</v>
       </c>
       <c r="J42" s="1">
         <v>92.93</v>
@@ -2082,16 +8056,16 @@
         <v>47.62</v>
       </c>
       <c r="F43" s="1">
-        <v>41.7</v>
+        <v>83.88</v>
       </c>
       <c r="G43" s="1">
-        <v>12.49</v>
+        <v>7.52</v>
       </c>
       <c r="H43" s="1">
-        <v>35.83</v>
+        <v>29.6</v>
       </c>
       <c r="I43" s="1">
-        <v>47.57</v>
+        <v>20.79</v>
       </c>
       <c r="J43" s="1">
         <v>79.48</v>
@@ -2115,16 +8089,16 @@
         <v>55.07</v>
       </c>
       <c r="F44" s="1">
-        <v>37.369999999999997</v>
+        <v>83.88</v>
       </c>
       <c r="G44" s="1">
-        <v>8.98</v>
+        <v>7.52</v>
       </c>
       <c r="H44" s="1">
-        <v>28.99</v>
+        <v>29.6</v>
       </c>
       <c r="I44" s="1">
-        <v>63.57</v>
+        <v>20.79</v>
       </c>
       <c r="J44" s="1">
         <v>81.22</v>
@@ -2148,16 +8122,16 @@
         <v>70.81</v>
       </c>
       <c r="F45" s="1">
-        <v>41.99</v>
+        <v>83.88</v>
       </c>
       <c r="G45" s="1">
-        <v>12.01</v>
+        <v>7.52</v>
       </c>
       <c r="H45" s="1">
-        <v>38.18</v>
+        <v>29.6</v>
       </c>
       <c r="I45" s="1">
-        <v>56.57</v>
+        <v>20.79</v>
       </c>
       <c r="J45" s="1">
         <v>92.59</v>
@@ -2181,16 +8155,16 @@
         <v>66.150000000000006</v>
       </c>
       <c r="F46" s="1">
-        <v>54.91</v>
+        <v>83.88</v>
       </c>
       <c r="G46" s="1">
-        <v>15.84</v>
+        <v>7.52</v>
       </c>
       <c r="H46" s="1">
-        <v>40.369999999999997</v>
+        <v>29.6</v>
       </c>
       <c r="I46" s="1">
-        <v>45.56</v>
+        <v>20.79</v>
       </c>
       <c r="J46" s="1">
         <v>98.04</v>
@@ -2214,16 +8188,16 @@
         <v>69.900000000000006</v>
       </c>
       <c r="F47" s="1">
-        <v>35.659999999999997</v>
+        <v>83.88</v>
       </c>
       <c r="G47" s="1">
-        <v>8.89</v>
+        <v>7.52</v>
       </c>
       <c r="H47" s="1">
-        <v>44.45</v>
+        <v>29.6</v>
       </c>
       <c r="I47" s="1">
-        <v>68.63</v>
+        <v>20.79</v>
       </c>
       <c r="J47" s="1">
         <v>93.26</v>
@@ -2247,16 +8221,16 @@
         <v>65.22</v>
       </c>
       <c r="F48" s="1">
-        <v>49.15</v>
+        <v>83.88</v>
       </c>
       <c r="G48" s="1">
-        <v>13.27</v>
+        <v>7.52</v>
       </c>
       <c r="H48" s="1">
-        <v>35.549999999999997</v>
+        <v>29.6</v>
       </c>
       <c r="I48" s="1">
-        <v>65.099999999999994</v>
+        <v>20.79</v>
       </c>
       <c r="J48" s="1">
         <v>90.21</v>
@@ -2280,16 +8254,16 @@
         <v>52.35</v>
       </c>
       <c r="F49" s="1">
-        <v>36.19</v>
+        <v>83.88</v>
       </c>
       <c r="G49" s="1">
-        <v>12.65</v>
+        <v>7.52</v>
       </c>
       <c r="H49" s="1">
-        <v>26.8</v>
+        <v>29.6</v>
       </c>
       <c r="I49" s="1">
-        <v>63.53</v>
+        <v>20.79</v>
       </c>
       <c r="J49" s="1">
         <v>80.48</v>
@@ -2313,16 +8287,16 @@
         <v>69.400000000000006</v>
       </c>
       <c r="F50" s="1">
-        <v>34.29</v>
+        <v>83.88</v>
       </c>
       <c r="G50" s="1">
-        <v>9.9700000000000006</v>
+        <v>7.52</v>
       </c>
       <c r="H50" s="1">
-        <v>38.15</v>
+        <v>29.6</v>
       </c>
       <c r="I50" s="1">
-        <v>66.88</v>
+        <v>20.79</v>
       </c>
       <c r="J50" s="1">
         <v>87.55</v>
@@ -2346,16 +8320,16 @@
         <v>69.81</v>
       </c>
       <c r="F51" s="1">
-        <v>38.72</v>
+        <v>83.88</v>
       </c>
       <c r="G51" s="1">
-        <v>19.48</v>
+        <v>7.52</v>
       </c>
       <c r="H51" s="1">
-        <v>42.09</v>
+        <v>29.6</v>
       </c>
       <c r="I51" s="1">
-        <v>51.89</v>
+        <v>20.79</v>
       </c>
       <c r="J51" s="1">
         <v>98.28</v>
@@ -2379,16 +8353,16 @@
         <v>67.8</v>
       </c>
       <c r="F52" s="1">
-        <v>39.46</v>
+        <v>83.88</v>
       </c>
       <c r="G52" s="1">
-        <v>9.67</v>
+        <v>7.52</v>
       </c>
       <c r="H52" s="1">
-        <v>36.549999999999997</v>
+        <v>29.6</v>
       </c>
       <c r="I52" s="1">
-        <v>62.92</v>
+        <v>20.79</v>
       </c>
       <c r="J52" s="1">
         <v>57.92</v>
@@ -2412,16 +8386,16 @@
         <v>51.73</v>
       </c>
       <c r="F53" s="1">
-        <v>27.78</v>
+        <v>83.88</v>
       </c>
       <c r="G53" s="1">
-        <v>13.59</v>
+        <v>7.52</v>
       </c>
       <c r="H53" s="1">
-        <v>36.549999999999997</v>
+        <v>29.6</v>
       </c>
       <c r="I53" s="1">
-        <v>71.55</v>
+        <v>20.79</v>
       </c>
       <c r="J53" s="1">
         <v>84.2</v>
@@ -2445,16 +8419,16 @@
         <v>52.01</v>
       </c>
       <c r="F54" s="1">
-        <v>36.299999999999997</v>
+        <v>83.88</v>
       </c>
       <c r="G54" s="1">
-        <v>19.41</v>
+        <v>7.52</v>
       </c>
       <c r="H54" s="1">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="I54" s="1">
-        <v>58.6</v>
+        <v>20.79</v>
       </c>
       <c r="J54" s="1">
         <v>83.23</v>
@@ -2478,16 +8452,16 @@
         <v>68.209999999999994</v>
       </c>
       <c r="F55" s="1">
-        <v>25.14</v>
+        <v>83.88</v>
       </c>
       <c r="G55" s="1">
-        <v>11.31</v>
+        <v>7.52</v>
       </c>
       <c r="H55" s="1">
-        <v>46.21</v>
+        <v>29.6</v>
       </c>
       <c r="I55" s="1">
-        <v>75.55</v>
+        <v>20.79</v>
       </c>
       <c r="J55" s="1">
         <v>65.77</v>
@@ -2511,16 +8485,16 @@
         <v>65.44</v>
       </c>
       <c r="F56" s="1">
-        <v>55.36</v>
+        <v>83.88</v>
       </c>
       <c r="G56" s="1">
-        <v>8.6999999999999993</v>
+        <v>7.52</v>
       </c>
       <c r="H56" s="1">
-        <v>43.54</v>
+        <v>29.6</v>
       </c>
       <c r="I56" s="1">
-        <v>78.95</v>
+        <v>20.79</v>
       </c>
       <c r="J56" s="1">
         <v>89.05</v>
@@ -2544,16 +8518,16 @@
         <v>57.33</v>
       </c>
       <c r="F57" s="1">
-        <v>32.270000000000003</v>
+        <v>83.88</v>
       </c>
       <c r="G57" s="1">
-        <v>13.27</v>
+        <v>7.52</v>
       </c>
       <c r="H57" s="1">
-        <v>28.98</v>
+        <v>29.6</v>
       </c>
       <c r="I57" s="1">
-        <v>80.12</v>
+        <v>20.79</v>
       </c>
       <c r="J57" s="1">
         <v>76.3</v>
@@ -2577,16 +8551,16 @@
         <v>64.66</v>
       </c>
       <c r="F58" s="1">
-        <v>59.74</v>
+        <v>83.88</v>
       </c>
       <c r="G58" s="1">
-        <v>13.49</v>
+        <v>7.52</v>
       </c>
       <c r="H58" s="1">
-        <v>36.130000000000003</v>
+        <v>29.6</v>
       </c>
       <c r="I58" s="1">
-        <v>87.65</v>
+        <v>20.79</v>
       </c>
       <c r="J58" s="1">
         <v>94.74</v>
@@ -2610,16 +8584,16 @@
         <v>59.86</v>
       </c>
       <c r="F59" s="1">
-        <v>52.98</v>
+        <v>83.88</v>
       </c>
       <c r="G59" s="1">
-        <v>12.75</v>
+        <v>7.52</v>
       </c>
       <c r="H59" s="1">
-        <v>37.33</v>
+        <v>29.6</v>
       </c>
       <c r="I59" s="1">
-        <v>63.97</v>
+        <v>20.79</v>
       </c>
       <c r="J59" s="1">
         <v>67.84</v>
@@ -2643,16 +8617,16 @@
         <v>67.63</v>
       </c>
       <c r="F60" s="1">
-        <v>30.25</v>
+        <v>83.88</v>
       </c>
       <c r="G60" s="1">
-        <v>19.510000000000002</v>
+        <v>7.52</v>
       </c>
       <c r="H60" s="1">
-        <v>45.28</v>
+        <v>29.6</v>
       </c>
       <c r="I60" s="1">
-        <v>62.57</v>
+        <v>20.79</v>
       </c>
       <c r="J60" s="1">
         <v>96.69</v>
@@ -2676,16 +8650,16 @@
         <v>60.51</v>
       </c>
       <c r="F61" s="1">
-        <v>18.579999999999998</v>
+        <v>83.88</v>
       </c>
       <c r="G61" s="1">
-        <v>14.14</v>
+        <v>7.52</v>
       </c>
       <c r="H61" s="1">
-        <v>37.99</v>
+        <v>29.6</v>
       </c>
       <c r="I61" s="1">
-        <v>74.78</v>
+        <v>20.79</v>
       </c>
       <c r="J61" s="1">
         <v>72.989999999999995</v>
@@ -2709,16 +8683,16 @@
         <v>78.44</v>
       </c>
       <c r="F62" s="1">
-        <v>49.86</v>
+        <v>83.88</v>
       </c>
       <c r="G62" s="1">
-        <v>21.72</v>
+        <v>7.52</v>
       </c>
       <c r="H62" s="1">
-        <v>38.450000000000003</v>
+        <v>29.6</v>
       </c>
       <c r="I62" s="1">
-        <v>74.040000000000006</v>
+        <v>20.79</v>
       </c>
       <c r="J62" s="1">
         <v>69.45</v>
@@ -2742,16 +8716,16 @@
         <v>57.64</v>
       </c>
       <c r="F63" s="1">
-        <v>38.590000000000003</v>
+        <v>83.88</v>
       </c>
       <c r="G63" s="1">
-        <v>11.09</v>
+        <v>7.52</v>
       </c>
       <c r="H63" s="1">
-        <v>45.25</v>
+        <v>29.6</v>
       </c>
       <c r="I63" s="1">
-        <v>63.49</v>
+        <v>20.79</v>
       </c>
       <c r="J63" s="1">
         <v>42.82</v>
@@ -2775,16 +8749,16 @@
         <v>55.59</v>
       </c>
       <c r="F64" s="1">
-        <v>42.64</v>
+        <v>83.88</v>
       </c>
       <c r="G64" s="1">
-        <v>16.760000000000002</v>
+        <v>7.52</v>
       </c>
       <c r="H64" s="1">
-        <v>42.31</v>
+        <v>29.6</v>
       </c>
       <c r="I64" s="1">
-        <v>56.1</v>
+        <v>20.79</v>
       </c>
       <c r="J64" s="1">
         <v>94.25</v>
@@ -2808,16 +8782,16 @@
         <v>39.35</v>
       </c>
       <c r="F65" s="1">
-        <v>34.590000000000003</v>
+        <v>83.88</v>
       </c>
       <c r="G65" s="1">
-        <v>14.45</v>
+        <v>7.52</v>
       </c>
       <c r="H65" s="1">
-        <v>36.83</v>
+        <v>29.6</v>
       </c>
       <c r="I65" s="1">
-        <v>68.14</v>
+        <v>20.79</v>
       </c>
       <c r="J65" s="1">
         <v>86.09</v>
@@ -2841,16 +8815,16 @@
         <v>51.13</v>
       </c>
       <c r="F66" s="1">
-        <v>30.94</v>
+        <v>83.88</v>
       </c>
       <c r="G66" s="1">
-        <v>13.42</v>
+        <v>7.52</v>
       </c>
       <c r="H66" s="1">
-        <v>38.44</v>
+        <v>29.6</v>
       </c>
       <c r="I66" s="1">
-        <v>65.55</v>
+        <v>20.79</v>
       </c>
       <c r="J66" s="1">
         <v>70.69</v>
@@ -2874,16 +8848,16 @@
         <v>61.9</v>
       </c>
       <c r="F67" s="1">
-        <v>36.86</v>
+        <v>83.88</v>
       </c>
       <c r="G67" s="1">
-        <v>15.05</v>
+        <v>7.52</v>
       </c>
       <c r="H67" s="1">
-        <v>43.46</v>
+        <v>29.6</v>
       </c>
       <c r="I67" s="1">
-        <v>64.39</v>
+        <v>20.79</v>
       </c>
       <c r="J67" s="1">
         <v>63.76</v>
@@ -2907,16 +8881,16 @@
         <v>64.180000000000007</v>
       </c>
       <c r="F68" s="1">
-        <v>40.54</v>
+        <v>83.88</v>
       </c>
       <c r="G68" s="1">
-        <v>30.29</v>
+        <v>7.52</v>
       </c>
       <c r="H68" s="1">
-        <v>41.64</v>
+        <v>29.6</v>
       </c>
       <c r="I68" s="1">
-        <v>81.239999999999995</v>
+        <v>20.79</v>
       </c>
       <c r="J68" s="1">
         <v>78.91</v>
@@ -2940,16 +8914,16 @@
         <v>66.930000000000007</v>
       </c>
       <c r="F69" s="1">
-        <v>79.209999999999994</v>
+        <v>83.88</v>
       </c>
       <c r="G69" s="1">
-        <v>49.38</v>
+        <v>7.52</v>
       </c>
       <c r="H69" s="1">
-        <v>41.09</v>
+        <v>29.6</v>
       </c>
       <c r="I69" s="1">
-        <v>67.34</v>
+        <v>20.79</v>
       </c>
       <c r="J69" s="1">
         <v>83.64</v>
@@ -2973,16 +8947,16 @@
         <v>72.98</v>
       </c>
       <c r="F70" s="1">
-        <v>32.950000000000003</v>
+        <v>83.88</v>
       </c>
       <c r="G70" s="1">
+        <v>7.52</v>
+      </c>
+      <c r="H70" s="1">
         <v>29.6</v>
       </c>
-      <c r="H70" s="1">
-        <v>55.54</v>
-      </c>
       <c r="I70" s="1">
-        <v>58.38</v>
+        <v>20.79</v>
       </c>
       <c r="J70" s="1">
         <v>59.11</v>
@@ -3006,16 +8980,16 @@
         <v>66.45</v>
       </c>
       <c r="F71" s="1">
-        <v>36.97</v>
+        <v>83.88</v>
       </c>
       <c r="G71" s="1">
-        <v>23.63</v>
+        <v>7.52</v>
       </c>
       <c r="H71" s="1">
-        <v>43.87</v>
+        <v>29.6</v>
       </c>
       <c r="I71" s="1">
-        <v>74.55</v>
+        <v>20.79</v>
       </c>
       <c r="J71" s="1">
         <v>60.81</v>
@@ -3039,16 +9013,16 @@
         <v>56.26</v>
       </c>
       <c r="F72" s="1">
-        <v>38.82</v>
+        <v>83.88</v>
       </c>
       <c r="G72" s="1">
-        <v>14.75</v>
+        <v>7.52</v>
       </c>
       <c r="H72" s="1">
-        <v>49.16</v>
+        <v>29.6</v>
       </c>
       <c r="I72" s="1">
-        <v>84.6</v>
+        <v>20.79</v>
       </c>
       <c r="J72" s="1">
         <v>97.69</v>
@@ -3072,16 +9046,16 @@
         <v>50.2</v>
       </c>
       <c r="F73" s="1">
-        <v>30.06</v>
+        <v>83.88</v>
       </c>
       <c r="G73" s="1">
-        <v>11.69</v>
+        <v>7.52</v>
       </c>
       <c r="H73" s="1">
-        <v>31.64</v>
+        <v>29.6</v>
       </c>
       <c r="I73" s="1">
-        <v>75.42</v>
+        <v>20.79</v>
       </c>
       <c r="J73" s="1">
         <v>39.78</v>
@@ -3105,16 +9079,16 @@
         <v>44.76</v>
       </c>
       <c r="F74" s="1">
-        <v>29.09</v>
+        <v>83.88</v>
       </c>
       <c r="G74" s="1">
-        <v>13.6</v>
+        <v>7.52</v>
       </c>
       <c r="H74" s="1">
-        <v>48.28</v>
+        <v>29.6</v>
       </c>
       <c r="I74" s="1">
-        <v>86.31</v>
+        <v>20.79</v>
       </c>
       <c r="J74" s="1">
         <v>91.98</v>
@@ -3138,16 +9112,16 @@
         <v>55.24</v>
       </c>
       <c r="F75" s="1">
-        <v>38.17</v>
+        <v>83.88</v>
       </c>
       <c r="G75" s="1">
-        <v>22.55</v>
+        <v>7.52</v>
       </c>
       <c r="H75" s="1">
-        <v>29.65</v>
+        <v>29.6</v>
       </c>
       <c r="I75" s="1">
-        <v>86.29</v>
+        <v>20.79</v>
       </c>
       <c r="J75" s="1">
         <v>71.239999999999995</v>
@@ -3171,16 +9145,16 @@
         <v>51.86</v>
       </c>
       <c r="F76" s="1">
-        <v>41.39</v>
+        <v>83.88</v>
       </c>
       <c r="G76" s="1">
-        <v>24.88</v>
+        <v>7.52</v>
       </c>
       <c r="H76" s="1">
-        <v>48.02</v>
+        <v>29.6</v>
       </c>
       <c r="I76" s="1">
-        <v>78.03</v>
+        <v>20.79</v>
       </c>
       <c r="J76" s="1">
         <v>70.989999999999995</v>
@@ -3204,16 +9178,16 @@
         <v>54.98</v>
       </c>
       <c r="F77" s="1">
-        <v>39.26</v>
+        <v>83.88</v>
       </c>
       <c r="G77" s="1">
-        <v>31.34</v>
+        <v>7.52</v>
       </c>
       <c r="H77" s="1">
-        <v>56.11</v>
+        <v>29.6</v>
       </c>
       <c r="I77" s="1">
-        <v>74.010000000000005</v>
+        <v>20.79</v>
       </c>
       <c r="J77" s="1">
         <v>99.79</v>
@@ -3237,16 +9211,16 @@
         <v>42.55</v>
       </c>
       <c r="F78" s="1">
-        <v>32.619999999999997</v>
+        <v>83.88</v>
       </c>
       <c r="G78" s="1">
-        <v>12.87</v>
+        <v>7.52</v>
       </c>
       <c r="H78" s="1">
-        <v>57.08</v>
+        <v>29.6</v>
       </c>
       <c r="I78" s="1">
-        <v>88.81</v>
+        <v>20.79</v>
       </c>
       <c r="J78" s="1">
         <v>71.290000000000006</v>

--- a/3 курс/6 семестр/ИАД 2/Данные.xlsx
+++ b/3 курс/6 семестр/ИАД 2/Данные.xlsx
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B694"/>
   <sheetViews>
-    <sheetView topLeftCell="A668" workbookViewId="0">
-      <selection activeCell="G678" sqref="G678"/>
+    <sheetView topLeftCell="A600" workbookViewId="0">
+      <selection activeCell="A541" sqref="A541:A617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6637,7 +6637,7 @@
   <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J78"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6736,16 +6736,16 @@
         <v>73.23</v>
       </c>
       <c r="F3" s="1">
-        <v>83.88</v>
+        <v>122.67</v>
       </c>
       <c r="G3" s="1">
-        <v>7.52</v>
+        <v>9.11</v>
       </c>
       <c r="H3" s="1">
-        <v>29.6</v>
+        <v>29.12</v>
       </c>
       <c r="I3" s="1">
-        <v>20.79</v>
+        <v>21.31</v>
       </c>
       <c r="J3" s="1">
         <v>79.239999999999995</v>
@@ -6769,16 +6769,16 @@
         <v>75.27</v>
       </c>
       <c r="F4" s="1">
-        <v>83.88</v>
+        <v>72.180000000000007</v>
       </c>
       <c r="G4" s="1">
-        <v>7.52</v>
+        <v>7.88</v>
       </c>
       <c r="H4" s="1">
-        <v>29.6</v>
+        <v>30.62</v>
       </c>
       <c r="I4" s="1">
-        <v>20.79</v>
+        <v>11.57</v>
       </c>
       <c r="J4" s="1">
         <v>62.79</v>
@@ -6802,16 +6802,16 @@
         <v>76.819999999999993</v>
       </c>
       <c r="F5" s="1">
-        <v>83.88</v>
+        <v>73.39</v>
       </c>
       <c r="G5" s="1">
-        <v>7.52</v>
+        <v>7.68</v>
       </c>
       <c r="H5" s="1">
-        <v>29.6</v>
+        <v>35.659999999999997</v>
       </c>
       <c r="I5" s="1">
-        <v>20.79</v>
+        <v>23.15</v>
       </c>
       <c r="J5" s="1">
         <v>94.2</v>
@@ -6835,16 +6835,16 @@
         <v>65.66</v>
       </c>
       <c r="F6" s="1">
-        <v>83.88</v>
+        <v>97.22</v>
       </c>
       <c r="G6" s="1">
-        <v>7.52</v>
+        <v>6.41</v>
       </c>
       <c r="H6" s="1">
-        <v>29.6</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>20.79</v>
+        <v>15.65</v>
       </c>
       <c r="J6" s="1">
         <v>68.81</v>
@@ -6868,16 +6868,16 @@
         <v>79.459999999999994</v>
       </c>
       <c r="F7" s="1">
-        <v>83.88</v>
+        <v>72.150000000000006</v>
       </c>
       <c r="G7" s="1">
-        <v>7.52</v>
+        <v>10.64</v>
       </c>
       <c r="H7" s="1">
-        <v>29.6</v>
+        <v>25.41</v>
       </c>
       <c r="I7" s="1">
-        <v>20.79</v>
+        <v>21.78</v>
       </c>
       <c r="J7" s="1">
         <v>80.36</v>
@@ -6901,16 +6901,16 @@
         <v>79.459999999999994</v>
       </c>
       <c r="F8" s="1">
-        <v>83.88</v>
+        <v>75.22</v>
       </c>
       <c r="G8" s="1">
         <v>7.52</v>
       </c>
       <c r="H8" s="1">
-        <v>29.6</v>
+        <v>29.42</v>
       </c>
       <c r="I8" s="1">
-        <v>20.79</v>
+        <v>27.34</v>
       </c>
       <c r="J8" s="1">
         <v>87.56</v>
@@ -6934,16 +6934,16 @@
         <v>73.58</v>
       </c>
       <c r="F9" s="1">
-        <v>83.88</v>
+        <v>66.569999999999993</v>
       </c>
       <c r="G9" s="1">
-        <v>7.52</v>
+        <v>9.42</v>
       </c>
       <c r="H9" s="1">
-        <v>29.6</v>
+        <v>30.39</v>
       </c>
       <c r="I9" s="1">
-        <v>20.79</v>
+        <v>28.42</v>
       </c>
       <c r="J9" s="1">
         <v>82.8</v>
@@ -6967,16 +6967,16 @@
         <v>73.709999999999994</v>
       </c>
       <c r="F10" s="1">
-        <v>83.88</v>
+        <v>73.010000000000005</v>
       </c>
       <c r="G10" s="1">
-        <v>7.52</v>
+        <v>8.51</v>
       </c>
       <c r="H10" s="1">
-        <v>29.6</v>
+        <v>30.72</v>
       </c>
       <c r="I10" s="1">
-        <v>20.79</v>
+        <v>23.49</v>
       </c>
       <c r="J10" s="1">
         <v>95.46</v>
@@ -7000,16 +7000,16 @@
         <v>69.41</v>
       </c>
       <c r="F11" s="1">
-        <v>83.88</v>
+        <v>70.11</v>
       </c>
       <c r="G11" s="1">
-        <v>7.52</v>
+        <v>9.61</v>
       </c>
       <c r="H11" s="1">
-        <v>29.6</v>
+        <v>30.04</v>
       </c>
       <c r="I11" s="1">
-        <v>20.79</v>
+        <v>17.45</v>
       </c>
       <c r="J11" s="1">
         <v>73.58</v>
@@ -7033,16 +7033,16 @@
         <v>74.36</v>
       </c>
       <c r="F12" s="1">
-        <v>83.88</v>
+        <v>104.49</v>
       </c>
       <c r="G12" s="1">
-        <v>7.52</v>
+        <v>8.61</v>
       </c>
       <c r="H12" s="1">
-        <v>29.6</v>
+        <v>27.24</v>
       </c>
       <c r="I12" s="1">
-        <v>20.79</v>
+        <v>20.29</v>
       </c>
       <c r="J12" s="1">
         <v>71.37</v>
@@ -7066,16 +7066,16 @@
         <v>68.489999999999995</v>
       </c>
       <c r="F13" s="1">
-        <v>83.88</v>
+        <v>50.99</v>
       </c>
       <c r="G13" s="1">
-        <v>7.52</v>
+        <v>9.07</v>
       </c>
       <c r="H13" s="1">
-        <v>29.6</v>
+        <v>25.49</v>
       </c>
       <c r="I13" s="1">
-        <v>20.79</v>
+        <v>19.88</v>
       </c>
       <c r="J13" s="1">
         <v>64.28</v>
@@ -7099,16 +7099,16 @@
         <v>69.23</v>
       </c>
       <c r="F14" s="1">
-        <v>83.88</v>
+        <v>70.95</v>
       </c>
       <c r="G14" s="1">
-        <v>7.52</v>
+        <v>3.54</v>
       </c>
       <c r="H14" s="1">
-        <v>29.6</v>
+        <v>32.659999999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>20.79</v>
+        <v>35.74</v>
       </c>
       <c r="J14" s="1">
         <v>76.75</v>
@@ -7132,16 +7132,16 @@
         <v>80.48</v>
       </c>
       <c r="F15" s="1">
-        <v>83.88</v>
+        <v>85.52</v>
       </c>
       <c r="G15" s="1">
-        <v>7.52</v>
+        <v>12.83</v>
       </c>
       <c r="H15" s="1">
-        <v>29.6</v>
+        <v>38.64</v>
       </c>
       <c r="I15" s="1">
-        <v>20.79</v>
+        <v>36.78</v>
       </c>
       <c r="J15" s="1">
         <v>85.26</v>
@@ -7165,16 +7165,16 @@
         <v>78.42</v>
       </c>
       <c r="F16" s="1">
-        <v>83.88</v>
+        <v>54.74</v>
       </c>
       <c r="G16" s="1">
-        <v>7.52</v>
+        <v>9.48</v>
       </c>
       <c r="H16" s="1">
-        <v>29.6</v>
+        <v>29.3</v>
       </c>
       <c r="I16" s="1">
-        <v>20.79</v>
+        <v>39.159999999999997</v>
       </c>
       <c r="J16" s="1">
         <v>94.55</v>
@@ -7198,16 +7198,16 @@
         <v>63.75</v>
       </c>
       <c r="F17" s="1">
-        <v>83.88</v>
+        <v>54.17</v>
       </c>
       <c r="G17" s="1">
-        <v>7.52</v>
+        <v>10.6</v>
       </c>
       <c r="H17" s="1">
-        <v>29.6</v>
+        <v>26.7</v>
       </c>
       <c r="I17" s="1">
-        <v>20.79</v>
+        <v>23.21</v>
       </c>
       <c r="J17" s="1">
         <v>76.11</v>
@@ -7231,16 +7231,16 @@
         <v>71.27</v>
       </c>
       <c r="F18" s="1">
-        <v>83.88</v>
+        <v>68.16</v>
       </c>
       <c r="G18" s="1">
-        <v>7.52</v>
+        <v>7.88</v>
       </c>
       <c r="H18" s="1">
-        <v>29.6</v>
+        <v>33.630000000000003</v>
       </c>
       <c r="I18" s="1">
-        <v>20.79</v>
+        <v>27.66</v>
       </c>
       <c r="J18" s="1">
         <v>55.79</v>
@@ -7264,16 +7264,16 @@
         <v>74.88</v>
       </c>
       <c r="F19" s="1">
-        <v>83.88</v>
+        <v>65.33</v>
       </c>
       <c r="G19" s="1">
-        <v>7.52</v>
+        <v>9.82</v>
       </c>
       <c r="H19" s="1">
-        <v>29.6</v>
+        <v>34.75</v>
       </c>
       <c r="I19" s="1">
-        <v>20.79</v>
+        <v>40.630000000000003</v>
       </c>
       <c r="J19" s="1">
         <v>87.71</v>
@@ -7297,16 +7297,16 @@
         <v>65.599999999999994</v>
       </c>
       <c r="F20" s="1">
-        <v>83.88</v>
+        <v>50.05</v>
       </c>
       <c r="G20" s="1">
-        <v>7.52</v>
+        <v>12.69</v>
       </c>
       <c r="H20" s="1">
-        <v>29.6</v>
+        <v>29.88</v>
       </c>
       <c r="I20" s="1">
-        <v>20.79</v>
+        <v>29.06</v>
       </c>
       <c r="J20" s="1">
         <v>89.05</v>
@@ -7330,16 +7330,16 @@
         <v>71.64</v>
       </c>
       <c r="F21" s="1">
-        <v>83.88</v>
+        <v>50.77</v>
       </c>
       <c r="G21" s="1">
-        <v>7.52</v>
+        <v>13.04</v>
       </c>
       <c r="H21" s="1">
-        <v>29.6</v>
+        <v>29.2</v>
       </c>
       <c r="I21" s="1">
-        <v>20.79</v>
+        <v>30.65</v>
       </c>
       <c r="J21" s="1">
         <v>97.55</v>
@@ -7363,16 +7363,16 @@
         <v>73.17</v>
       </c>
       <c r="F22" s="1">
-        <v>83.88</v>
+        <v>62.22</v>
       </c>
       <c r="G22" s="1">
-        <v>7.52</v>
+        <v>5.85</v>
       </c>
       <c r="H22" s="1">
-        <v>29.6</v>
+        <v>31.14</v>
       </c>
       <c r="I22" s="1">
-        <v>20.79</v>
+        <v>61.62</v>
       </c>
       <c r="J22" s="1">
         <v>36.03</v>
@@ -7396,16 +7396,16 @@
         <v>78.3</v>
       </c>
       <c r="F23" s="1">
-        <v>83.88</v>
+        <v>73.13</v>
       </c>
       <c r="G23" s="1">
-        <v>7.52</v>
+        <v>6.92</v>
       </c>
       <c r="H23" s="1">
-        <v>29.6</v>
+        <v>34.61</v>
       </c>
       <c r="I23" s="1">
-        <v>20.79</v>
+        <v>50.48</v>
       </c>
       <c r="J23" s="1">
         <v>85.99</v>
@@ -7429,16 +7429,16 @@
         <v>74.47</v>
       </c>
       <c r="F24" s="1">
-        <v>83.88</v>
+        <v>45.7</v>
       </c>
       <c r="G24" s="1">
-        <v>7.52</v>
+        <v>14.44</v>
       </c>
       <c r="H24" s="1">
-        <v>29.6</v>
+        <v>29.74</v>
       </c>
       <c r="I24" s="1">
-        <v>20.79</v>
+        <v>40.090000000000003</v>
       </c>
       <c r="J24" s="1">
         <v>77.13</v>
@@ -7462,16 +7462,16 @@
         <v>68.790000000000006</v>
       </c>
       <c r="F25" s="1">
-        <v>83.88</v>
+        <v>45.41</v>
       </c>
       <c r="G25" s="1">
-        <v>7.52</v>
+        <v>10.99</v>
       </c>
       <c r="H25" s="1">
-        <v>29.6</v>
+        <v>26.34</v>
       </c>
       <c r="I25" s="1">
-        <v>20.79</v>
+        <v>29.84</v>
       </c>
       <c r="J25" s="1">
         <v>69.86</v>
@@ -7495,16 +7495,16 @@
         <v>51.44</v>
       </c>
       <c r="F26" s="1">
-        <v>83.88</v>
+        <v>76.33</v>
       </c>
       <c r="G26" s="1">
-        <v>7.52</v>
+        <v>7.09</v>
       </c>
       <c r="H26" s="1">
-        <v>29.6</v>
+        <v>36.53</v>
       </c>
       <c r="I26" s="1">
-        <v>20.79</v>
+        <v>33.020000000000003</v>
       </c>
       <c r="J26" s="1">
         <v>88.59</v>
@@ -7528,16 +7528,16 @@
         <v>66.13</v>
       </c>
       <c r="F27" s="1">
-        <v>83.88</v>
+        <v>63.58</v>
       </c>
       <c r="G27" s="1">
-        <v>7.52</v>
+        <v>5.38</v>
       </c>
       <c r="H27" s="1">
-        <v>29.6</v>
+        <v>37.17</v>
       </c>
       <c r="I27" s="1">
-        <v>20.79</v>
+        <v>52.99</v>
       </c>
       <c r="J27" s="1">
         <v>45.23</v>
@@ -7561,16 +7561,16 @@
         <v>78.34</v>
       </c>
       <c r="F28" s="1">
-        <v>83.88</v>
+        <v>74.62</v>
       </c>
       <c r="G28" s="1">
-        <v>7.52</v>
+        <v>13.67</v>
       </c>
       <c r="H28" s="1">
-        <v>29.6</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="I28" s="1">
-        <v>20.79</v>
+        <v>42.91</v>
       </c>
       <c r="J28" s="1">
         <v>89.76</v>
@@ -7594,16 +7594,16 @@
         <v>60.46</v>
       </c>
       <c r="F29" s="1">
-        <v>83.88</v>
+        <v>44.65</v>
       </c>
       <c r="G29" s="1">
-        <v>7.52</v>
+        <v>10.08</v>
       </c>
       <c r="H29" s="1">
-        <v>29.6</v>
+        <v>28.42</v>
       </c>
       <c r="I29" s="1">
-        <v>20.79</v>
+        <v>40.64</v>
       </c>
       <c r="J29" s="1">
         <v>78.13</v>
@@ -7627,16 +7627,16 @@
         <v>63.73</v>
       </c>
       <c r="F30" s="1">
-        <v>83.88</v>
+        <v>49.55</v>
       </c>
       <c r="G30" s="1">
-        <v>7.52</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="H30" s="1">
-        <v>29.6</v>
+        <v>31.07</v>
       </c>
       <c r="I30" s="1">
-        <v>20.79</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="J30" s="1">
         <v>74.7</v>
@@ -7660,16 +7660,16 @@
         <v>52.06</v>
       </c>
       <c r="F31" s="1">
-        <v>83.88</v>
+        <v>58.39</v>
       </c>
       <c r="G31" s="1">
-        <v>7.52</v>
+        <v>8.01</v>
       </c>
       <c r="H31" s="1">
-        <v>29.6</v>
+        <v>21.06</v>
       </c>
       <c r="I31" s="1">
-        <v>20.79</v>
+        <v>54.17</v>
       </c>
       <c r="J31" s="1">
         <v>90.87</v>
@@ -7693,16 +7693,16 @@
         <v>72.97</v>
       </c>
       <c r="F32" s="1">
-        <v>83.88</v>
+        <v>79.540000000000006</v>
       </c>
       <c r="G32" s="1">
-        <v>7.52</v>
+        <v>13.53</v>
       </c>
       <c r="H32" s="1">
-        <v>29.6</v>
+        <v>35.43</v>
       </c>
       <c r="I32" s="1">
-        <v>20.79</v>
+        <v>56.93</v>
       </c>
       <c r="J32" s="1">
         <v>93.8</v>
@@ -7726,16 +7726,16 @@
         <v>60.04</v>
       </c>
       <c r="F33" s="1">
-        <v>83.88</v>
+        <v>48.71</v>
       </c>
       <c r="G33" s="1">
-        <v>7.52</v>
+        <v>2.85</v>
       </c>
       <c r="H33" s="1">
-        <v>29.6</v>
+        <v>29.14</v>
       </c>
       <c r="I33" s="1">
-        <v>20.79</v>
+        <v>66.069999999999993</v>
       </c>
       <c r="J33" s="1">
         <v>41.42</v>
@@ -7759,16 +7759,16 @@
         <v>83.59</v>
       </c>
       <c r="F34" s="1">
-        <v>83.88</v>
+        <v>75.16</v>
       </c>
       <c r="G34" s="1">
-        <v>7.52</v>
+        <v>16.23</v>
       </c>
       <c r="H34" s="1">
-        <v>29.6</v>
+        <v>39.6</v>
       </c>
       <c r="I34" s="1">
-        <v>20.79</v>
+        <v>54.8</v>
       </c>
       <c r="J34" s="1">
         <v>68.39</v>
@@ -7792,16 +7792,16 @@
         <v>86.89</v>
       </c>
       <c r="F35" s="1">
-        <v>83.88</v>
+        <v>58.77</v>
       </c>
       <c r="G35" s="1">
-        <v>7.52</v>
+        <v>23.16</v>
       </c>
       <c r="H35" s="1">
-        <v>29.6</v>
+        <v>32.03</v>
       </c>
       <c r="I35" s="1">
-        <v>20.79</v>
+        <v>64.2</v>
       </c>
       <c r="J35" s="1">
         <v>84.38</v>
@@ -7825,16 +7825,16 @@
         <v>71.069999999999993</v>
       </c>
       <c r="F36" s="1">
-        <v>83.88</v>
+        <v>80.23</v>
       </c>
       <c r="G36" s="1">
-        <v>7.52</v>
+        <v>23.13</v>
       </c>
       <c r="H36" s="1">
-        <v>29.6</v>
+        <v>41.3</v>
       </c>
       <c r="I36" s="1">
-        <v>20.79</v>
+        <v>32.06</v>
       </c>
       <c r="J36" s="1">
         <v>57.45</v>
@@ -7858,16 +7858,16 @@
         <v>62.52</v>
       </c>
       <c r="F37" s="1">
-        <v>83.88</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="G37" s="1">
-        <v>7.52</v>
+        <v>10.95</v>
       </c>
       <c r="H37" s="1">
-        <v>29.6</v>
+        <v>31.68</v>
       </c>
       <c r="I37" s="1">
-        <v>20.79</v>
+        <v>52.88</v>
       </c>
       <c r="J37" s="1">
         <v>75.849999999999994</v>
@@ -7891,16 +7891,16 @@
         <v>66.56</v>
       </c>
       <c r="F38" s="1">
-        <v>83.88</v>
+        <v>69.02</v>
       </c>
       <c r="G38" s="1">
-        <v>7.52</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="H38" s="1">
-        <v>29.6</v>
+        <v>34.869999999999997</v>
       </c>
       <c r="I38" s="1">
-        <v>20.79</v>
+        <v>54.97</v>
       </c>
       <c r="J38" s="1">
         <v>91.26</v>
@@ -7924,16 +7924,16 @@
         <v>58.87</v>
       </c>
       <c r="F39" s="1">
-        <v>83.88</v>
+        <v>33.020000000000003</v>
       </c>
       <c r="G39" s="1">
-        <v>7.52</v>
+        <v>14.29</v>
       </c>
       <c r="H39" s="1">
-        <v>29.6</v>
+        <v>30.29</v>
       </c>
       <c r="I39" s="1">
-        <v>20.79</v>
+        <v>43.75</v>
       </c>
       <c r="J39" s="1">
         <v>64.37</v>
@@ -7957,16 +7957,16 @@
         <v>63.27</v>
       </c>
       <c r="F40" s="1">
-        <v>83.88</v>
+        <v>43.74</v>
       </c>
       <c r="G40" s="1">
-        <v>7.52</v>
+        <v>3.78</v>
       </c>
       <c r="H40" s="1">
-        <v>29.6</v>
+        <v>39.880000000000003</v>
       </c>
       <c r="I40" s="1">
-        <v>20.79</v>
+        <v>56.2</v>
       </c>
       <c r="J40" s="1">
         <v>95.97</v>
@@ -7990,16 +7990,16 @@
         <v>54.99</v>
       </c>
       <c r="F41" s="1">
-        <v>83.88</v>
+        <v>36.07</v>
       </c>
       <c r="G41" s="1">
-        <v>7.52</v>
+        <v>11.2</v>
       </c>
       <c r="H41" s="1">
-        <v>29.6</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="I41" s="1">
-        <v>20.79</v>
+        <v>56.55</v>
       </c>
       <c r="J41" s="1">
         <v>77.62</v>
@@ -8023,16 +8023,16 @@
         <v>55.48</v>
       </c>
       <c r="F42" s="1">
-        <v>83.88</v>
+        <v>56.72</v>
       </c>
       <c r="G42" s="1">
-        <v>7.52</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="H42" s="1">
-        <v>29.6</v>
+        <v>33.36</v>
       </c>
       <c r="I42" s="1">
-        <v>20.79</v>
+        <v>52.48</v>
       </c>
       <c r="J42" s="1">
         <v>92.93</v>
@@ -8056,16 +8056,16 @@
         <v>47.62</v>
       </c>
       <c r="F43" s="1">
-        <v>83.88</v>
+        <v>41.7</v>
       </c>
       <c r="G43" s="1">
-        <v>7.52</v>
+        <v>12.49</v>
       </c>
       <c r="H43" s="1">
-        <v>29.6</v>
+        <v>35.83</v>
       </c>
       <c r="I43" s="1">
-        <v>20.79</v>
+        <v>47.57</v>
       </c>
       <c r="J43" s="1">
         <v>79.48</v>
@@ -8089,16 +8089,16 @@
         <v>55.07</v>
       </c>
       <c r="F44" s="1">
-        <v>83.88</v>
+        <v>37.369999999999997</v>
       </c>
       <c r="G44" s="1">
-        <v>7.52</v>
+        <v>8.98</v>
       </c>
       <c r="H44" s="1">
-        <v>29.6</v>
+        <v>28.99</v>
       </c>
       <c r="I44" s="1">
-        <v>20.79</v>
+        <v>63.57</v>
       </c>
       <c r="J44" s="1">
         <v>81.22</v>
@@ -8122,16 +8122,16 @@
         <v>70.81</v>
       </c>
       <c r="F45" s="1">
-        <v>83.88</v>
+        <v>41.99</v>
       </c>
       <c r="G45" s="1">
-        <v>7.52</v>
+        <v>12.01</v>
       </c>
       <c r="H45" s="1">
-        <v>29.6</v>
+        <v>38.18</v>
       </c>
       <c r="I45" s="1">
-        <v>20.79</v>
+        <v>56.57</v>
       </c>
       <c r="J45" s="1">
         <v>92.59</v>
@@ -8155,16 +8155,16 @@
         <v>66.150000000000006</v>
       </c>
       <c r="F46" s="1">
-        <v>83.88</v>
+        <v>54.91</v>
       </c>
       <c r="G46" s="1">
-        <v>7.52</v>
+        <v>15.84</v>
       </c>
       <c r="H46" s="1">
-        <v>29.6</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="I46" s="1">
-        <v>20.79</v>
+        <v>45.56</v>
       </c>
       <c r="J46" s="1">
         <v>98.04</v>
@@ -8188,16 +8188,16 @@
         <v>69.900000000000006</v>
       </c>
       <c r="F47" s="1">
-        <v>83.88</v>
+        <v>35.659999999999997</v>
       </c>
       <c r="G47" s="1">
-        <v>7.52</v>
+        <v>8.89</v>
       </c>
       <c r="H47" s="1">
-        <v>29.6</v>
+        <v>44.45</v>
       </c>
       <c r="I47" s="1">
-        <v>20.79</v>
+        <v>68.63</v>
       </c>
       <c r="J47" s="1">
         <v>93.26</v>
@@ -8221,16 +8221,16 @@
         <v>65.22</v>
       </c>
       <c r="F48" s="1">
-        <v>83.88</v>
+        <v>49.15</v>
       </c>
       <c r="G48" s="1">
-        <v>7.52</v>
+        <v>13.27</v>
       </c>
       <c r="H48" s="1">
-        <v>29.6</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="I48" s="1">
-        <v>20.79</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="J48" s="1">
         <v>90.21</v>
@@ -8254,16 +8254,16 @@
         <v>52.35</v>
       </c>
       <c r="F49" s="1">
-        <v>83.88</v>
+        <v>36.19</v>
       </c>
       <c r="G49" s="1">
-        <v>7.52</v>
+        <v>12.65</v>
       </c>
       <c r="H49" s="1">
-        <v>29.6</v>
+        <v>26.8</v>
       </c>
       <c r="I49" s="1">
-        <v>20.79</v>
+        <v>63.53</v>
       </c>
       <c r="J49" s="1">
         <v>80.48</v>
@@ -8287,16 +8287,16 @@
         <v>69.400000000000006</v>
       </c>
       <c r="F50" s="1">
-        <v>83.88</v>
+        <v>34.29</v>
       </c>
       <c r="G50" s="1">
-        <v>7.52</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="H50" s="1">
-        <v>29.6</v>
+        <v>38.15</v>
       </c>
       <c r="I50" s="1">
-        <v>20.79</v>
+        <v>66.88</v>
       </c>
       <c r="J50" s="1">
         <v>87.55</v>
@@ -8320,16 +8320,16 @@
         <v>69.81</v>
       </c>
       <c r="F51" s="1">
-        <v>83.88</v>
+        <v>38.72</v>
       </c>
       <c r="G51" s="1">
-        <v>7.52</v>
+        <v>19.48</v>
       </c>
       <c r="H51" s="1">
-        <v>29.6</v>
+        <v>42.09</v>
       </c>
       <c r="I51" s="1">
-        <v>20.79</v>
+        <v>51.89</v>
       </c>
       <c r="J51" s="1">
         <v>98.28</v>
@@ -8353,16 +8353,16 @@
         <v>67.8</v>
       </c>
       <c r="F52" s="1">
-        <v>83.88</v>
+        <v>39.46</v>
       </c>
       <c r="G52" s="1">
-        <v>7.52</v>
+        <v>9.67</v>
       </c>
       <c r="H52" s="1">
-        <v>29.6</v>
+        <v>36.549999999999997</v>
       </c>
       <c r="I52" s="1">
-        <v>20.79</v>
+        <v>62.92</v>
       </c>
       <c r="J52" s="1">
         <v>57.92</v>
@@ -8386,16 +8386,16 @@
         <v>51.73</v>
       </c>
       <c r="F53" s="1">
-        <v>83.88</v>
+        <v>27.78</v>
       </c>
       <c r="G53" s="1">
-        <v>7.52</v>
+        <v>13.59</v>
       </c>
       <c r="H53" s="1">
-        <v>29.6</v>
+        <v>36.549999999999997</v>
       </c>
       <c r="I53" s="1">
-        <v>20.79</v>
+        <v>71.55</v>
       </c>
       <c r="J53" s="1">
         <v>84.2</v>
@@ -8419,16 +8419,16 @@
         <v>52.01</v>
       </c>
       <c r="F54" s="1">
-        <v>83.88</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="G54" s="1">
-        <v>7.52</v>
+        <v>19.41</v>
       </c>
       <c r="H54" s="1">
-        <v>29.6</v>
+        <v>30.2</v>
       </c>
       <c r="I54" s="1">
-        <v>20.79</v>
+        <v>58.6</v>
       </c>
       <c r="J54" s="1">
         <v>83.23</v>
@@ -8452,16 +8452,16 @@
         <v>68.209999999999994</v>
       </c>
       <c r="F55" s="1">
-        <v>83.88</v>
+        <v>25.14</v>
       </c>
       <c r="G55" s="1">
-        <v>7.52</v>
+        <v>11.31</v>
       </c>
       <c r="H55" s="1">
-        <v>29.6</v>
+        <v>46.21</v>
       </c>
       <c r="I55" s="1">
-        <v>20.79</v>
+        <v>75.55</v>
       </c>
       <c r="J55" s="1">
         <v>65.77</v>
@@ -8485,16 +8485,16 @@
         <v>65.44</v>
       </c>
       <c r="F56" s="1">
-        <v>83.88</v>
+        <v>55.36</v>
       </c>
       <c r="G56" s="1">
-        <v>7.52</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H56" s="1">
-        <v>29.6</v>
+        <v>43.54</v>
       </c>
       <c r="I56" s="1">
-        <v>20.79</v>
+        <v>78.95</v>
       </c>
       <c r="J56" s="1">
         <v>89.05</v>
@@ -8518,16 +8518,16 @@
         <v>57.33</v>
       </c>
       <c r="F57" s="1">
-        <v>83.88</v>
+        <v>32.270000000000003</v>
       </c>
       <c r="G57" s="1">
-        <v>7.52</v>
+        <v>13.27</v>
       </c>
       <c r="H57" s="1">
-        <v>29.6</v>
+        <v>28.98</v>
       </c>
       <c r="I57" s="1">
-        <v>20.79</v>
+        <v>80.12</v>
       </c>
       <c r="J57" s="1">
         <v>76.3</v>
@@ -8551,16 +8551,16 @@
         <v>64.66</v>
       </c>
       <c r="F58" s="1">
-        <v>83.88</v>
+        <v>59.74</v>
       </c>
       <c r="G58" s="1">
-        <v>7.52</v>
+        <v>13.49</v>
       </c>
       <c r="H58" s="1">
-        <v>29.6</v>
+        <v>36.130000000000003</v>
       </c>
       <c r="I58" s="1">
-        <v>20.79</v>
+        <v>87.65</v>
       </c>
       <c r="J58" s="1">
         <v>94.74</v>
@@ -8584,16 +8584,16 @@
         <v>59.86</v>
       </c>
       <c r="F59" s="1">
-        <v>83.88</v>
+        <v>52.98</v>
       </c>
       <c r="G59" s="1">
-        <v>7.52</v>
+        <v>12.75</v>
       </c>
       <c r="H59" s="1">
-        <v>29.6</v>
+        <v>37.33</v>
       </c>
       <c r="I59" s="1">
-        <v>20.79</v>
+        <v>63.97</v>
       </c>
       <c r="J59" s="1">
         <v>67.84</v>
@@ -8617,16 +8617,16 @@
         <v>67.63</v>
       </c>
       <c r="F60" s="1">
-        <v>83.88</v>
+        <v>30.25</v>
       </c>
       <c r="G60" s="1">
-        <v>7.52</v>
+        <v>19.510000000000002</v>
       </c>
       <c r="H60" s="1">
-        <v>29.6</v>
+        <v>45.28</v>
       </c>
       <c r="I60" s="1">
-        <v>20.79</v>
+        <v>62.57</v>
       </c>
       <c r="J60" s="1">
         <v>96.69</v>
@@ -8650,16 +8650,16 @@
         <v>60.51</v>
       </c>
       <c r="F61" s="1">
-        <v>83.88</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="G61" s="1">
-        <v>7.52</v>
+        <v>14.14</v>
       </c>
       <c r="H61" s="1">
-        <v>29.6</v>
+        <v>37.99</v>
       </c>
       <c r="I61" s="1">
-        <v>20.79</v>
+        <v>74.78</v>
       </c>
       <c r="J61" s="1">
         <v>72.989999999999995</v>
@@ -8683,16 +8683,16 @@
         <v>78.44</v>
       </c>
       <c r="F62" s="1">
-        <v>83.88</v>
+        <v>49.86</v>
       </c>
       <c r="G62" s="1">
-        <v>7.52</v>
+        <v>21.72</v>
       </c>
       <c r="H62" s="1">
-        <v>29.6</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="I62" s="1">
-        <v>20.79</v>
+        <v>74.040000000000006</v>
       </c>
       <c r="J62" s="1">
         <v>69.45</v>
@@ -8716,16 +8716,16 @@
         <v>57.64</v>
       </c>
       <c r="F63" s="1">
-        <v>83.88</v>
+        <v>38.590000000000003</v>
       </c>
       <c r="G63" s="1">
-        <v>7.52</v>
+        <v>11.09</v>
       </c>
       <c r="H63" s="1">
-        <v>29.6</v>
+        <v>45.25</v>
       </c>
       <c r="I63" s="1">
-        <v>20.79</v>
+        <v>63.49</v>
       </c>
       <c r="J63" s="1">
         <v>42.82</v>
@@ -8749,16 +8749,16 @@
         <v>55.59</v>
       </c>
       <c r="F64" s="1">
-        <v>83.88</v>
+        <v>42.64</v>
       </c>
       <c r="G64" s="1">
-        <v>7.52</v>
+        <v>16.760000000000002</v>
       </c>
       <c r="H64" s="1">
-        <v>29.6</v>
+        <v>42.31</v>
       </c>
       <c r="I64" s="1">
-        <v>20.79</v>
+        <v>56.1</v>
       </c>
       <c r="J64" s="1">
         <v>94.25</v>
@@ -8782,16 +8782,16 @@
         <v>39.35</v>
       </c>
       <c r="F65" s="1">
-        <v>83.88</v>
+        <v>34.590000000000003</v>
       </c>
       <c r="G65" s="1">
-        <v>7.52</v>
+        <v>14.45</v>
       </c>
       <c r="H65" s="1">
-        <v>29.6</v>
+        <v>36.83</v>
       </c>
       <c r="I65" s="1">
-        <v>20.79</v>
+        <v>68.14</v>
       </c>
       <c r="J65" s="1">
         <v>86.09</v>
@@ -8815,16 +8815,16 @@
         <v>51.13</v>
       </c>
       <c r="F66" s="1">
-        <v>83.88</v>
+        <v>30.94</v>
       </c>
       <c r="G66" s="1">
-        <v>7.52</v>
+        <v>13.42</v>
       </c>
       <c r="H66" s="1">
-        <v>29.6</v>
+        <v>38.44</v>
       </c>
       <c r="I66" s="1">
-        <v>20.79</v>
+        <v>65.55</v>
       </c>
       <c r="J66" s="1">
         <v>70.69</v>
@@ -8848,16 +8848,16 @@
         <v>61.9</v>
       </c>
       <c r="F67" s="1">
-        <v>83.88</v>
+        <v>36.86</v>
       </c>
       <c r="G67" s="1">
-        <v>7.52</v>
+        <v>15.05</v>
       </c>
       <c r="H67" s="1">
-        <v>29.6</v>
+        <v>43.46</v>
       </c>
       <c r="I67" s="1">
-        <v>20.79</v>
+        <v>64.39</v>
       </c>
       <c r="J67" s="1">
         <v>63.76</v>
@@ -8881,16 +8881,16 @@
         <v>64.180000000000007</v>
       </c>
       <c r="F68" s="1">
-        <v>83.88</v>
+        <v>40.54</v>
       </c>
       <c r="G68" s="1">
-        <v>7.52</v>
+        <v>30.29</v>
       </c>
       <c r="H68" s="1">
-        <v>29.6</v>
+        <v>41.64</v>
       </c>
       <c r="I68" s="1">
-        <v>20.79</v>
+        <v>81.239999999999995</v>
       </c>
       <c r="J68" s="1">
         <v>78.91</v>
@@ -8914,16 +8914,16 @@
         <v>66.930000000000007</v>
       </c>
       <c r="F69" s="1">
-        <v>83.88</v>
+        <v>79.209999999999994</v>
       </c>
       <c r="G69" s="1">
-        <v>7.52</v>
+        <v>49.38</v>
       </c>
       <c r="H69" s="1">
-        <v>29.6</v>
+        <v>41.09</v>
       </c>
       <c r="I69" s="1">
-        <v>20.79</v>
+        <v>67.34</v>
       </c>
       <c r="J69" s="1">
         <v>83.64</v>
@@ -8947,16 +8947,16 @@
         <v>72.98</v>
       </c>
       <c r="F70" s="1">
-        <v>83.88</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="G70" s="1">
-        <v>7.52</v>
+        <v>29.6</v>
       </c>
       <c r="H70" s="1">
-        <v>29.6</v>
+        <v>55.54</v>
       </c>
       <c r="I70" s="1">
-        <v>20.79</v>
+        <v>58.38</v>
       </c>
       <c r="J70" s="1">
         <v>59.11</v>
@@ -8980,16 +8980,16 @@
         <v>66.45</v>
       </c>
       <c r="F71" s="1">
-        <v>83.88</v>
+        <v>36.97</v>
       </c>
       <c r="G71" s="1">
-        <v>7.52</v>
+        <v>23.63</v>
       </c>
       <c r="H71" s="1">
-        <v>29.6</v>
+        <v>43.87</v>
       </c>
       <c r="I71" s="1">
-        <v>20.79</v>
+        <v>74.55</v>
       </c>
       <c r="J71" s="1">
         <v>60.81</v>
@@ -9013,16 +9013,16 @@
         <v>56.26</v>
       </c>
       <c r="F72" s="1">
-        <v>83.88</v>
+        <v>38.82</v>
       </c>
       <c r="G72" s="1">
-        <v>7.52</v>
+        <v>14.75</v>
       </c>
       <c r="H72" s="1">
-        <v>29.6</v>
+        <v>49.16</v>
       </c>
       <c r="I72" s="1">
-        <v>20.79</v>
+        <v>84.6</v>
       </c>
       <c r="J72" s="1">
         <v>97.69</v>
@@ -9046,16 +9046,16 @@
         <v>50.2</v>
       </c>
       <c r="F73" s="1">
-        <v>83.88</v>
+        <v>30.06</v>
       </c>
       <c r="G73" s="1">
-        <v>7.52</v>
+        <v>11.69</v>
       </c>
       <c r="H73" s="1">
-        <v>29.6</v>
+        <v>31.64</v>
       </c>
       <c r="I73" s="1">
-        <v>20.79</v>
+        <v>75.42</v>
       </c>
       <c r="J73" s="1">
         <v>39.78</v>
@@ -9079,16 +9079,16 @@
         <v>44.76</v>
       </c>
       <c r="F74" s="1">
-        <v>83.88</v>
+        <v>29.09</v>
       </c>
       <c r="G74" s="1">
-        <v>7.52</v>
+        <v>13.6</v>
       </c>
       <c r="H74" s="1">
-        <v>29.6</v>
+        <v>48.28</v>
       </c>
       <c r="I74" s="1">
-        <v>20.79</v>
+        <v>86.31</v>
       </c>
       <c r="J74" s="1">
         <v>91.98</v>
@@ -9112,16 +9112,16 @@
         <v>55.24</v>
       </c>
       <c r="F75" s="1">
-        <v>83.88</v>
+        <v>38.17</v>
       </c>
       <c r="G75" s="1">
-        <v>7.52</v>
+        <v>22.55</v>
       </c>
       <c r="H75" s="1">
-        <v>29.6</v>
+        <v>29.65</v>
       </c>
       <c r="I75" s="1">
-        <v>20.79</v>
+        <v>86.29</v>
       </c>
       <c r="J75" s="1">
         <v>71.239999999999995</v>
@@ -9145,16 +9145,16 @@
         <v>51.86</v>
       </c>
       <c r="F76" s="1">
-        <v>83.88</v>
+        <v>41.39</v>
       </c>
       <c r="G76" s="1">
-        <v>7.52</v>
+        <v>24.88</v>
       </c>
       <c r="H76" s="1">
-        <v>29.6</v>
+        <v>48.02</v>
       </c>
       <c r="I76" s="1">
-        <v>20.79</v>
+        <v>78.03</v>
       </c>
       <c r="J76" s="1">
         <v>70.989999999999995</v>
@@ -9178,16 +9178,16 @@
         <v>54.98</v>
       </c>
       <c r="F77" s="1">
-        <v>83.88</v>
+        <v>39.26</v>
       </c>
       <c r="G77" s="1">
-        <v>7.52</v>
+        <v>31.34</v>
       </c>
       <c r="H77" s="1">
-        <v>29.6</v>
+        <v>56.11</v>
       </c>
       <c r="I77" s="1">
-        <v>20.79</v>
+        <v>74.010000000000005</v>
       </c>
       <c r="J77" s="1">
         <v>99.79</v>
@@ -9211,16 +9211,16 @@
         <v>42.55</v>
       </c>
       <c r="F78" s="1">
-        <v>83.88</v>
+        <v>32.619999999999997</v>
       </c>
       <c r="G78" s="1">
-        <v>7.52</v>
+        <v>12.87</v>
       </c>
       <c r="H78" s="1">
-        <v>29.6</v>
+        <v>57.08</v>
       </c>
       <c r="I78" s="1">
-        <v>20.79</v>
+        <v>88.81</v>
       </c>
       <c r="J78" s="1">
         <v>71.290000000000006</v>

--- a/3 курс/6 семестр/ИАД 2/Данные.xlsx
+++ b/3 курс/6 семестр/ИАД 2/Данные.xlsx
@@ -663,7 +663,7 @@
   <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +762,7 @@
         <v>73.23</v>
       </c>
       <c r="F3" s="1">
-        <v>122.67</v>
+        <v>98.67</v>
       </c>
       <c r="G3" s="1">
         <v>9.11</v>
@@ -1059,7 +1059,7 @@
         <v>74.36</v>
       </c>
       <c r="F12" s="1">
-        <v>104.49</v>
+        <v>94.49</v>
       </c>
       <c r="G12" s="1">
         <v>8.61</v>
@@ -2403,7 +2403,7 @@
         <v>118.42</v>
       </c>
       <c r="C53" s="1">
-        <v>30.23</v>
+        <v>70.349999999999994</v>
       </c>
       <c r="D53" s="1">
         <v>79.819999999999993</v>
@@ -2436,7 +2436,7 @@
         <v>117.7</v>
       </c>
       <c r="C54" s="1">
-        <v>37.94</v>
+        <v>70.349999999999994</v>
       </c>
       <c r="D54" s="1">
         <v>62.37</v>
@@ -2469,7 +2469,7 @@
         <v>115.41</v>
       </c>
       <c r="C55" s="1">
-        <v>61.73</v>
+        <v>70.349999999999994</v>
       </c>
       <c r="D55" s="1">
         <v>57.62</v>
@@ -2676,7 +2676,7 @@
         <v>60.51</v>
       </c>
       <c r="F61" s="1">
-        <v>18.579999999999998</v>
+        <v>20.58</v>
       </c>
       <c r="G61" s="1">
         <v>14.14</v>
